--- a/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$64</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2170" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2475" uniqueCount="530">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-23T15:55:29-06:00</t>
+    <t>2023-01-04T18:59:45-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -514,10 +514,225 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
+    <t>Practitioner.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>./IdentifierType</t>
+  </si>
+  <si>
+    <t>https://johnmoehrke.github.io/MHV-PHR/Vista/111/UserTO.id</t>
+  </si>
+  <si>
+    <t>https://johnmoehrke.github.io/MHV-PHR/Vista/111/AuthorTO.id</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>./Value</t>
+  </si>
+  <si>
     <t>UserTO.ids</t>
   </si>
   <si>
     <t>AuthorTO.id</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>./StartDate and ./EndDate</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>./IdentifierIssuingAuthority</t>
   </si>
   <si>
     <t>Practitioner.identifier:NPI</t>
@@ -595,105 +810,73 @@
     <t>./PreferredName (GivenNames, FamilyName, TitleCode)</t>
   </si>
   <si>
+    <t>Practitioner.name.id</t>
+  </si>
+  <si>
+    <t>Practitioner.name.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.name.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | nickname | anonymous | old | maiden</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this name.</t>
+  </si>
+  <si>
+    <t>Applications can assume that a name is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate name for a particular context of use to be selected from among a set of names.</t>
+  </si>
+  <si>
+    <t>The use of a human name.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/name-use|4.0.1</t>
+  </si>
+  <si>
+    <t>HumanName.use</t>
+  </si>
+  <si>
+    <t>XPN.7, but often indicated by which field contains the name</t>
+  </si>
+  <si>
+    <t>unique(./use)</t>
+  </si>
+  <si>
+    <t>./NamePurpose</t>
+  </si>
+  <si>
+    <t>Practitioner.name.text</t>
+  </si>
+  <si>
+    <t>Text representation of the full name</t>
+  </si>
+  <si>
+    <t>Specifies the entire name as it should be displayed e.g. on an application UI. This may be provided instead of or as well as the specific parts.</t>
+  </si>
+  <si>
+    <t>Can provide both a text representation and parts. Applications updating a name SHALL ensure that when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
+  </si>
+  <si>
+    <t>A renderable, unencoded form.</t>
+  </si>
+  <si>
+    <t>HumanName.text</t>
+  </si>
+  <si>
+    <t>implied by XPN.11</t>
+  </si>
+  <si>
+    <t>./formatted</t>
+  </si>
+  <si>
     <t>UserTO.name</t>
   </si>
   <si>
     <t>AuthorTO.name</t>
-  </si>
-  <si>
-    <t>Practitioner.name.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Practitioner.name.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.name.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | nickname | anonymous | old | maiden</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this name.</t>
-  </si>
-  <si>
-    <t>Applications can assume that a name is current unless it explicitly says that it is temporary or old.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate name for a particular context of use to be selected from among a set of names.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The use of a human name.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/name-use|4.0.1</t>
-  </si>
-  <si>
-    <t>HumanName.use</t>
-  </si>
-  <si>
-    <t>XPN.7, but often indicated by which field contains the name</t>
-  </si>
-  <si>
-    <t>unique(./use)</t>
-  </si>
-  <si>
-    <t>./NamePurpose</t>
-  </si>
-  <si>
-    <t>Practitioner.name.text</t>
-  </si>
-  <si>
-    <t>Text representation of the full name</t>
-  </si>
-  <si>
-    <t>Specifies the entire name as it should be displayed e.g. on an application UI. This may be provided instead of or as well as the specific parts.</t>
-  </si>
-  <si>
-    <t>Can provide both a text representation and parts. Applications updating a name SHALL ensure that when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
-  </si>
-  <si>
-    <t>A renderable, unencoded form.</t>
-  </si>
-  <si>
-    <t>HumanName.text</t>
-  </si>
-  <si>
-    <t>implied by XPN.11</t>
-  </si>
-  <si>
-    <t>./formatted</t>
   </si>
   <si>
     <t>Practitioner.name.family</t>
@@ -794,10 +977,6 @@
     <t>Practitioner.name.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
     <t>Time period when name was/is in use</t>
   </si>
   <si>
@@ -814,9 +993,6 @@
   </si>
   <si>
     <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
-  </si>
-  <si>
-    <t>./StartDate and ./EndDate</t>
   </si>
   <si>
     <t>Practitioner.telecom</t>
@@ -911,9 +1087,6 @@
     <t>./url</t>
   </si>
   <si>
-    <t>./Value</t>
-  </si>
-  <si>
     <t>Practitioner.telecom.use</t>
   </si>
   <si>
@@ -1182,9 +1355,6 @@
   </si>
   <si>
     <t>Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (e.g. US 2 letter state codes).</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>Two letter USPS alphabetic codes.</t>
@@ -1418,10 +1588,6 @@
     <t>Practitioner.qualification.code</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
     <t>Coded representation of the qualification</t>
   </si>
   <si>
@@ -1459,10 +1625,6 @@
   </si>
   <si>
     <t>Practitioner.qualification.issuer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
   </si>
   <si>
     <t>Organization that regulates and issues the qualification</t>
@@ -1826,7 +1988,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP56"/>
+  <dimension ref="A1:AP64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1854,12 +2016,12 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.75390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="56.12109375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="52.28125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
@@ -1871,11 +2033,11 @@
     <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="102.75390625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="53.2265625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="99.69140625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="51.21484375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="26.6015625" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="26.6015625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="57.421875" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="59.5390625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3200,22 +3362,20 @@
         <v>158</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="AP11" t="s" s="2">
-        <v>160</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
         <v>81</v>
       </c>
@@ -3227,27 +3387,25 @@
         <v>90</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="N12" s="2"/>
-      <c r="O12" t="s" s="2">
-        <v>152</v>
-      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>81</v>
       </c>
@@ -3256,70 +3414,70 @@
         <v>81</v>
       </c>
       <c r="S12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF12" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="T12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>147</v>
-      </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>155</v>
+        <v>81</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>157</v>
+        <v>81</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>158</v>
+        <v>81</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>81</v>
@@ -3330,21 +3488,21 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>81</v>
@@ -3353,97 +3511,93 @@
         <v>81</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB13" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="N13" t="s" s="2">
+      <c r="AC13" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="O13" t="s" s="2">
+      <c r="AD13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="P13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q13" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="R13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF13" t="s" s="2">
+      <c r="AG13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="AG13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>171</v>
-      </c>
       <c r="AM13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>172</v>
+        <v>81</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>81</v>
@@ -3454,10 +3608,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3465,34 +3619,34 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G14" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="H14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I14" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="O14" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>81</v>
@@ -3517,13 +3671,13 @@
         <v>81</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>81</v>
+        <v>175</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>81</v>
+        <v>176</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>81</v>
@@ -3541,13 +3695,13 @@
         <v>81</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>81</v>
@@ -3556,30 +3710,30 @@
         <v>102</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="AL14" t="s" s="2">
-        <v>180</v>
-      </c>
       <c r="AM14" t="s" s="2">
-        <v>181</v>
+        <v>81</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>182</v>
+        <v>81</v>
       </c>
       <c r="AP14" t="s" s="2">
-        <v>183</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3599,19 +3753,23 @@
         <v>81</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="O15" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="L15" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>81</v>
       </c>
@@ -3635,13 +3793,13 @@
         <v>81</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>81</v>
+        <v>186</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>81</v>
+        <v>187</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>81</v>
+        <v>188</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>81</v>
@@ -3659,7 +3817,7 @@
         <v>81</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3671,13 +3829,13 @@
         <v>81</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>81</v>
+        <v>190</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>81</v>
@@ -3694,44 +3852,46 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O16" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="P16" t="s" s="2">
         <v>81</v>
       </c>
@@ -3743,7 +3903,7 @@
         <v>81</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>81</v>
+        <v>196</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>81</v>
@@ -3767,57 +3927,57 @@
         <v>81</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>193</v>
+        <v>81</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>154</v>
+        <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>81</v>
+        <v>198</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>81</v>
+        <v>200</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>81</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3825,35 +3985,33 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>81</v>
       </c>
@@ -3865,7 +4023,7 @@
         <v>81</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>81</v>
+        <v>207</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>81</v>
@@ -3877,13 +4035,13 @@
         <v>81</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>201</v>
+        <v>81</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>202</v>
+        <v>81</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>81</v>
@@ -3901,7 +4059,7 @@
         <v>81</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3916,30 +4074,30 @@
         <v>102</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>81</v>
+        <v>212</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>81</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3962,20 +4120,16 @@
         <v>91</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>81</v>
       </c>
@@ -4023,7 +4177,7 @@
         <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -4038,13 +4192,13 @@
         <v>102</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>81</v>
+        <v>221</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>81</v>
@@ -4058,24 +4212,24 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>216</v>
+        <v>81</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>81</v>
@@ -4084,16 +4238,16 @@
         <v>91</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>185</v>
+        <v>223</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4143,7 +4297,7 @@
         <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -4158,13 +4312,13 @@
         <v>102</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>81</v>
@@ -4178,24 +4332,26 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="D20" t="s" s="2">
-        <v>225</v>
+        <v>81</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>81</v>
@@ -4204,18 +4360,18 @@
         <v>91</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>226</v>
+        <v>149</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O20" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>81</v>
       </c>
@@ -4224,7 +4380,7 @@
         <v>81</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>81</v>
+        <v>233</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>81</v>
@@ -4263,7 +4419,7 @@
         <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>229</v>
+        <v>147</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4278,16 +4434,16 @@
         <v>102</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>230</v>
+        <v>155</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>231</v>
+        <v>156</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>232</v>
+        <v>157</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>81</v>
+        <v>158</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>81</v>
@@ -4298,10 +4454,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4312,7 +4468,7 @@
         <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>81</v>
@@ -4324,70 +4480,76 @@
         <v>91</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>185</v>
+        <v>235</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="P21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q21" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="R21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF21" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="M21" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q21" s="2"/>
-      <c r="R21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>236</v>
-      </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>81</v>
@@ -4396,16 +4558,16 @@
         <v>102</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>237</v>
+        <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>239</v>
+        <v>81</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>81</v>
+        <v>242</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>81</v>
@@ -4416,10 +4578,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4427,13 +4589,13 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>81</v>
@@ -4442,16 +4604,20 @@
         <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>185</v>
+        <v>244</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="P22" t="s" s="2">
         <v>81</v>
       </c>
@@ -4514,13 +4680,13 @@
         <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>81</v>
+        <v>251</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>81</v>
@@ -4534,10 +4700,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4557,21 +4723,19 @@
         <v>81</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>247</v>
+        <v>160</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>248</v>
+        <v>161</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>249</v>
+        <v>162</v>
       </c>
       <c r="N23" s="2"/>
-      <c r="O23" t="s" s="2">
-        <v>250</v>
-      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>81</v>
       </c>
@@ -4619,7 +4783,7 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>251</v>
+        <v>163</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4631,16 +4795,16 @@
         <v>81</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>252</v>
+        <v>81</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>253</v>
+        <v>164</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>254</v>
+        <v>81</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>81</v>
@@ -4654,14 +4818,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4671,29 +4835,27 @@
         <v>80</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>256</v>
+        <v>136</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>257</v>
+        <v>137</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>258</v>
+        <v>166</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>81</v>
       </c>
@@ -4729,19 +4891,19 @@
         <v>81</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>255</v>
+        <v>169</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4753,22 +4915,22 @@
         <v>81</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>261</v>
+        <v>81</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>262</v>
+        <v>164</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>263</v>
+        <v>81</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>264</v>
+        <v>81</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>81</v>
@@ -4776,10 +4938,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4796,22 +4958,26 @@
         <v>81</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>186</v>
+        <v>255</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>81</v>
       </c>
@@ -4835,13 +5001,13 @@
         <v>81</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>81</v>
+        <v>175</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>81</v>
+        <v>259</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>81</v>
+        <v>260</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>81</v>
@@ -4859,7 +5025,7 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>188</v>
+        <v>261</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4871,16 +5037,16 @@
         <v>81</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>81</v>
+        <v>262</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>189</v>
+        <v>263</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>81</v>
+        <v>264</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>81</v>
@@ -4894,21 +5060,21 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>81</v>
@@ -4917,21 +5083,23 @@
         <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>137</v>
+        <v>266</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>191</v>
+        <v>267</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O26" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>81</v>
       </c>
@@ -4967,37 +5135,37 @@
         <v>81</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>193</v>
+        <v>81</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>154</v>
+        <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>194</v>
+        <v>270</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>81</v>
+        <v>271</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>189</v>
+        <v>272</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>81</v>
@@ -5006,26 +5174,26 @@
         <v>81</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>81</v>
+        <v>273</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>81</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>81</v>
+        <v>276</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>90</v>
@@ -5040,15 +5208,17 @@
         <v>91</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>81</v>
@@ -5073,13 +5243,13 @@
         <v>81</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>270</v>
+        <v>81</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>271</v>
+        <v>81</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>81</v>
@@ -5097,7 +5267,7 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -5106,19 +5276,19 @@
         <v>90</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>273</v>
+        <v>81</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>81</v>
@@ -5132,24 +5302,24 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>81</v>
+        <v>285</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>81</v>
@@ -5158,20 +5328,18 @@
         <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>81</v>
       </c>
@@ -5219,13 +5387,13 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>81</v>
@@ -5234,13 +5402,13 @@
         <v>102</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>81</v>
@@ -5254,10 +5422,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5268,32 +5436,28 @@
         <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>81</v>
       </c>
@@ -5317,13 +5481,13 @@
         <v>81</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>291</v>
+        <v>81</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>292</v>
+        <v>81</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>81</v>
@@ -5341,13 +5505,13 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>81</v>
@@ -5356,13 +5520,13 @@
         <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>205</v>
+        <v>298</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>81</v>
@@ -5376,10 +5540,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5390,7 +5554,7 @@
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>81</v>
@@ -5402,17 +5566,15 @@
         <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>297</v>
+        <v>160</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>300</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>81</v>
@@ -5461,13 +5623,13 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>81</v>
@@ -5476,10 +5638,10 @@
         <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>189</v>
+        <v>304</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>189</v>
+        <v>305</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>81</v>
@@ -5496,10 +5658,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5522,16 +5684,18 @@
         <v>91</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+      <c r="O31" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>81</v>
       </c>
@@ -5579,7 +5743,7 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5594,13 +5758,13 @@
         <v>102</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>133</v>
+        <v>311</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>253</v>
+        <v>312</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>81</v>
@@ -5614,10 +5778,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5640,19 +5804,19 @@
         <v>91</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>81</v>
@@ -5701,7 +5865,7 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5716,19 +5880,19 @@
         <v>102</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>189</v>
+        <v>321</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>81</v>
+        <v>322</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>81</v>
@@ -5736,10 +5900,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5762,13 +5926,13 @@
         <v>81</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5819,7 +5983,7 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5837,7 +6001,7 @@
         <v>81</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>81</v>
@@ -5854,10 +6018,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5886,7 +6050,7 @@
         <v>137</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="N34" t="s" s="2">
         <v>139</v>
@@ -5927,10 +6091,10 @@
         <v>81</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>81</v>
@@ -5939,7 +6103,7 @@
         <v>154</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5957,7 +6121,7 @@
         <v>81</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>81</v>
@@ -5974,10 +6138,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5991,10 +6155,10 @@
         <v>90</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>91</v>
@@ -6003,17 +6167,13 @@
         <v>110</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>320</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>81</v>
       </c>
@@ -6025,7 +6185,7 @@
         <v>81</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>321</v>
+        <v>81</v>
       </c>
       <c r="U35" t="s" s="2">
         <v>81</v>
@@ -6037,13 +6197,13 @@
         <v>81</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>81</v>
@@ -6061,7 +6221,7 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -6070,19 +6230,19 @@
         <v>90</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>81</v>
+        <v>331</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>205</v>
+        <v>333</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>81</v>
@@ -6096,10 +6256,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6113,7 +6273,7 @@
         <v>90</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>81</v>
@@ -6122,18 +6282,20 @@
         <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="O36" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>81</v>
       </c>
@@ -6145,7 +6307,7 @@
         <v>81</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>331</v>
+        <v>81</v>
       </c>
       <c r="U36" t="s" s="2">
         <v>81</v>
@@ -6157,13 +6319,13 @@
         <v>81</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>332</v>
+        <v>81</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>333</v>
+        <v>81</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>81</v>
@@ -6181,7 +6343,7 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6196,13 +6358,13 @@
         <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>205</v>
+        <v>342</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>81</v>
+        <v>211</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
@@ -6216,10 +6378,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6236,25 +6398,25 @@
         <v>81</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>211</v>
+        <v>347</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>81</v>
@@ -6267,7 +6429,7 @@
         <v>81</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>340</v>
+        <v>81</v>
       </c>
       <c r="U37" t="s" s="2">
         <v>81</v>
@@ -6279,13 +6441,13 @@
         <v>81</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>81</v>
+        <v>175</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>81</v>
+        <v>348</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>81</v>
+        <v>349</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>81</v>
@@ -6303,7 +6465,7 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6318,13 +6480,13 @@
         <v>102</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>214</v>
+        <v>263</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>81</v>
+        <v>352</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
@@ -6338,10 +6500,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6352,10 +6514,10 @@
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>344</v>
+        <v>90</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>81</v>
@@ -6364,15 +6526,17 @@
         <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>185</v>
+        <v>354</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>81</v>
@@ -6385,7 +6549,7 @@
         <v>81</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>347</v>
+        <v>81</v>
       </c>
       <c r="U38" t="s" s="2">
         <v>81</v>
@@ -6421,13 +6585,13 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>81</v>
@@ -6436,13 +6600,13 @@
         <v>102</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>349</v>
+        <v>164</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>350</v>
+        <v>164</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>81</v>
@@ -6456,14 +6620,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>353</v>
+        <v>81</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6473,7 +6637,7 @@
         <v>90</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>81</v>
@@ -6482,13 +6646,13 @@
         <v>91</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6503,7 +6667,7 @@
         <v>81</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>356</v>
+        <v>81</v>
       </c>
       <c r="U39" t="s" s="2">
         <v>81</v>
@@ -6539,7 +6703,7 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6554,13 +6718,13 @@
         <v>102</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>358</v>
+        <v>133</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>359</v>
+        <v>312</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>360</v>
+        <v>221</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>81</v>
@@ -6574,24 +6738,24 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>362</v>
+        <v>81</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>81</v>
@@ -6600,18 +6764,20 @@
         <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>185</v>
+        <v>364</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="O40" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>81</v>
       </c>
@@ -6623,7 +6789,7 @@
         <v>81</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>366</v>
+        <v>81</v>
       </c>
       <c r="U40" t="s" s="2">
         <v>81</v>
@@ -6659,13 +6825,13 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>81</v>
@@ -6674,13 +6840,13 @@
         <v>102</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>81</v>
+        <v>164</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
@@ -6694,14 +6860,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>371</v>
+        <v>81</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6711,22 +6877,22 @@
         <v>90</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>372</v>
+        <v>161</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>373</v>
+        <v>162</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6753,13 +6919,13 @@
         <v>81</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>374</v>
+        <v>81</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>375</v>
+        <v>81</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>376</v>
+        <v>81</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>81</v>
@@ -6777,7 +6943,7 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>377</v>
+        <v>163</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6789,16 +6955,16 @@
         <v>81</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>378</v>
+        <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>379</v>
+        <v>164</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>380</v>
+        <v>81</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>81</v>
@@ -6812,41 +6978,43 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>382</v>
+        <v>135</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>185</v>
+        <v>136</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>383</v>
+        <v>137</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>81</v>
@@ -6859,7 +7027,7 @@
         <v>81</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>385</v>
+        <v>81</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>81</v>
@@ -6883,40 +7051,40 @@
         <v>81</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>386</v>
+        <v>169</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>387</v>
+        <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>388</v>
+        <v>164</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>389</v>
+        <v>81</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -6930,10 +7098,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6947,27 +7115,29 @@
         <v>90</v>
       </c>
       <c r="H43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I43" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>185</v>
+        <v>110</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>391</v>
+        <v>374</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>392</v>
+        <v>375</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="O43" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>81</v>
       </c>
@@ -6979,7 +7149,7 @@
         <v>81</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>81</v>
+        <v>378</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>81</v>
@@ -6991,13 +7161,13 @@
         <v>81</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>81</v>
+        <v>175</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>81</v>
+        <v>379</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>81</v>
+        <v>380</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>81</v>
@@ -7015,7 +7185,7 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -7030,13 +7200,13 @@
         <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>396</v>
+        <v>263</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>81</v>
@@ -7050,10 +7220,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7076,18 +7246,18 @@
         <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>247</v>
+        <v>110</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
-        <v>401</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>81</v>
       </c>
@@ -7099,7 +7269,7 @@
         <v>81</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>81</v>
@@ -7111,13 +7281,13 @@
         <v>81</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>81</v>
+        <v>175</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>81</v>
+        <v>389</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>81</v>
+        <v>390</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>81</v>
@@ -7135,7 +7305,7 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7150,13 +7320,13 @@
         <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>254</v>
+        <v>81</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
@@ -7170,10 +7340,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7196,17 +7366,19 @@
         <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="O45" t="s" s="2">
-        <v>408</v>
+        <v>269</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>81</v>
@@ -7219,7 +7391,7 @@
         <v>81</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>81</v>
+        <v>397</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>81</v>
@@ -7231,13 +7403,13 @@
         <v>81</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>409</v>
+        <v>81</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>410</v>
+        <v>81</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>81</v>
@@ -7255,7 +7427,7 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7270,13 +7442,13 @@
         <v>102</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>412</v>
+        <v>272</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>413</v>
+        <v>81</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
@@ -7290,10 +7462,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7304,10 +7476,10 @@
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>90</v>
+        <v>401</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>81</v>
@@ -7316,18 +7488,16 @@
         <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>415</v>
+        <v>160</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="N46" s="2"/>
-      <c r="O46" t="s" s="2">
-        <v>418</v>
-      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>81</v>
       </c>
@@ -7339,7 +7509,7 @@
         <v>81</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>81</v>
+        <v>404</v>
       </c>
       <c r="U46" t="s" s="2">
         <v>81</v>
@@ -7375,13 +7545,13 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>81</v>
@@ -7390,13 +7560,13 @@
         <v>102</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>81</v>
@@ -7410,44 +7580,42 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>81</v>
+        <v>410</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>423</v>
+        <v>160</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="N47" s="2"/>
-      <c r="O47" t="s" s="2">
-        <v>426</v>
-      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>81</v>
       </c>
@@ -7459,7 +7627,7 @@
         <v>81</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>81</v>
+        <v>413</v>
       </c>
       <c r="U47" t="s" s="2">
         <v>81</v>
@@ -7495,13 +7663,13 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>81</v>
@@ -7510,13 +7678,13 @@
         <v>102</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>81</v>
+        <v>415</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>81</v>
@@ -7530,21 +7698,21 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>81</v>
+        <v>419</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>81</v>
@@ -7553,18 +7721,20 @@
         <v>81</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>422</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>81</v>
@@ -7577,7 +7747,7 @@
         <v>81</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>81</v>
+        <v>423</v>
       </c>
       <c r="U48" t="s" s="2">
         <v>81</v>
@@ -7613,13 +7783,13 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>81</v>
@@ -7628,13 +7798,13 @@
         <v>102</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>435</v>
+        <v>81</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>81</v>
@@ -7648,14 +7818,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>81</v>
+        <v>428</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7665,22 +7835,22 @@
         <v>90</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>186</v>
+        <v>429</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>187</v>
+        <v>430</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7707,13 +7877,13 @@
         <v>81</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>81</v>
+        <v>186</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>81</v>
+        <v>431</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>81</v>
+        <v>432</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>81</v>
@@ -7731,7 +7901,7 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>188</v>
+        <v>433</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7743,16 +7913,16 @@
         <v>81</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>81</v>
+        <v>434</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>189</v>
+        <v>435</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>81</v>
+        <v>436</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>81</v>
@@ -7773,36 +7943,34 @@
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>135</v>
+        <v>438</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>137</v>
+        <v>439</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>81</v>
@@ -7815,7 +7983,7 @@
         <v>81</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>81</v>
+        <v>441</v>
       </c>
       <c r="U50" t="s" s="2">
         <v>81</v>
@@ -7851,28 +8019,28 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>194</v>
+        <v>442</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>81</v>
+        <v>443</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>189</v>
+        <v>444</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>81</v>
+        <v>445</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>81</v>
@@ -7886,46 +8054,44 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>439</v>
+        <v>81</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>81</v>
       </c>
@@ -7973,28 +8139,28 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>81</v>
+        <v>451</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>133</v>
+        <v>452</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>81</v>
+        <v>453</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>81</v>
@@ -8008,10 +8174,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8022,7 +8188,7 @@
         <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>81</v>
@@ -8031,20 +8197,20 @@
         <v>81</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>148</v>
+        <v>215</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>81</v>
@@ -8057,7 +8223,7 @@
         <v>81</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>81</v>
+        <v>458</v>
       </c>
       <c r="U52" t="s" s="2">
         <v>81</v>
@@ -8093,13 +8259,13 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>443</v>
+        <v>459</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>81</v>
@@ -8108,13 +8274,13 @@
         <v>102</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>81</v>
+        <v>460</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>447</v>
+        <v>312</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>81</v>
+        <v>221</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>81</v>
@@ -8128,10 +8294,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8139,7 +8305,7 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>90</v>
@@ -8151,19 +8317,21 @@
         <v>81</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>449</v>
+        <v>110</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>464</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>81</v>
       </c>
@@ -8187,13 +8355,13 @@
         <v>81</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>452</v>
+        <v>175</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>81</v>
@@ -8211,10 +8379,10 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>90</v>
@@ -8226,13 +8394,13 @@
         <v>102</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>81</v>
+        <v>467</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>434</v>
+        <v>468</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>455</v>
+        <v>469</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>81</v>
@@ -8246,10 +8414,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8269,20 +8437,20 @@
         <v>81</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>247</v>
+        <v>471</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>81</v>
@@ -8331,7 +8499,7 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8346,13 +8514,13 @@
         <v>102</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>81</v>
+        <v>475</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>81</v>
@@ -8366,10 +8534,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8380,7 +8548,7 @@
         <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>81</v>
@@ -8392,16 +8560,18 @@
         <v>81</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>463</v>
+        <v>479</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>464</v>
+        <v>480</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>482</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>81</v>
       </c>
@@ -8449,13 +8619,13 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>81</v>
@@ -8467,10 +8637,10 @@
         <v>81</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>466</v>
+        <v>483</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>81</v>
+        <v>484</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>81</v>
@@ -8484,10 +8654,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>467</v>
+        <v>485</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>467</v>
+        <v>485</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8510,20 +8680,16 @@
         <v>81</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>449</v>
+        <v>486</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>468</v>
+        <v>487</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>471</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>81</v>
       </c>
@@ -8547,13 +8713,13 @@
         <v>81</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>81</v>
@@ -8571,7 +8737,7 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>467</v>
+        <v>485</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8586,26 +8752,984 @@
         <v>102</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>472</v>
+        <v>489</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>473</v>
+        <v>490</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>475</v>
+        <v>81</v>
       </c>
       <c r="AP56" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP57" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O58" s="2"/>
+      <c r="P58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP58" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="P59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP59" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="P60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP60" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP61" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="P62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP62" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP63" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="P64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AP64" t="s" s="2">
         <v>81</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP56">
+  <autoFilter ref="A1:AP64">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8615,7 +9739,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI55">
+  <conditionalFormatting sqref="A2:AI63">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$45</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2475" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="401">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-beta</t>
+    <t>0.1.1-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-04T18:59:45-06:00</t>
+    <t>2023-01-05T09:18:04-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -271,7 +271,7 @@
     <t>A person with a  formal responsibility in the provisioning of healthcare or related services</t>
   </si>
   <si>
-    <t>\-</t>
+    <t>This is basic constraint on provider for use in US Core resources.</t>
   </si>
   <si>
     <t>PRD (as one example)</t>
@@ -1026,128 +1026,6 @@
     <t>UserTO.emailAddress</t>
   </si>
   <si>
-    <t>Practitioner.telecom.id</t>
-  </si>
-  <si>
-    <t>Practitioner.telecom.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.telecom.system</t>
-  </si>
-  <si>
-    <t>phone | fax | email | pager | url | sms | other</t>
-  </si>
-  <si>
-    <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
-  </si>
-  <si>
-    <t>Telecommunications form for contact point.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/contact-point-system|4.0.1</t>
-  </si>
-  <si>
-    <t>ContactPoint.system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cpt-2
-</t>
-  </si>
-  <si>
-    <t>XTN.3</t>
-  </si>
-  <si>
-    <t>./scheme</t>
-  </si>
-  <si>
-    <t>./ContactPointType</t>
-  </si>
-  <si>
-    <t>Practitioner.telecom.value</t>
-  </si>
-  <si>
-    <t>The actual contact point details</t>
-  </si>
-  <si>
-    <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
-  </si>
-  <si>
-    <t>Additional text data such as phone extension numbers, or notes about use of the contact are sometimes included in the value.</t>
-  </si>
-  <si>
-    <t>Need to support legacy numbers that are not in a tightly controlled format.</t>
-  </si>
-  <si>
-    <t>ContactPoint.value</t>
-  </si>
-  <si>
-    <t>XTN.1 (or XTN.12)</t>
-  </si>
-  <si>
-    <t>./url</t>
-  </si>
-  <si>
-    <t>Practitioner.telecom.use</t>
-  </si>
-  <si>
-    <t>home | work | temp | old | mobile - purpose of this contact point</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for the contact point.</t>
-  </si>
-  <si>
-    <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.</t>
-  </si>
-  <si>
-    <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
-  </si>
-  <si>
-    <t>Use of contact point.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>
-  </si>
-  <si>
-    <t>ContactPoint.use</t>
-  </si>
-  <si>
-    <t>XTN.2 - but often indicated by field</t>
-  </si>
-  <si>
-    <t>./ContactPointPurpose</t>
-  </si>
-  <si>
-    <t>Practitioner.telecom.rank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positiveInt
-</t>
-  </si>
-  <si>
-    <t>Specify preferred order of use (1 = highest)</t>
-  </si>
-  <si>
-    <t>Specifies a preferred order in which to use a set of contacts. ContactPoints with lower rank values are more preferred than those with higher rank values.</t>
-  </si>
-  <si>
-    <t>Note that rank does not necessarily follow the order in which the contacts are represented in the instance.</t>
-  </si>
-  <si>
-    <t>ContactPoint.rank</t>
-  </si>
-  <si>
-    <t>Practitioner.telecom.period</t>
-  </si>
-  <si>
-    <t>Time period when the contact point was/is in use</t>
-  </si>
-  <si>
-    <t>Time period when the contact point was/is in use.</t>
-  </si>
-  <si>
-    <t>ContactPoint.period</t>
-  </si>
-  <si>
     <t>Practitioner.address</t>
   </si>
   <si>
@@ -1174,281 +1052,7 @@
     <t>./addr</t>
   </si>
   <si>
-    <t>Practitioner.address.id</t>
-  </si>
-  <si>
-    <t>Practitioner.address.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.address.use</t>
-  </si>
-  <si>
-    <t>home | work | temp | old | billing - purpose of this address</t>
-  </si>
-  <si>
-    <t>The purpose of this address.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an address is current unless it explicitly says that it is temporary or old.</t>
-  </si>
-  <si>
-    <t>Allows an appropriate address to be chosen from a list of many.</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>The use of an address.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/address-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Address.use</t>
-  </si>
-  <si>
-    <t>XAD.7</t>
-  </si>
-  <si>
-    <t>./AddressPurpose</t>
-  </si>
-  <si>
-    <t>Practitioner.address.type</t>
-  </si>
-  <si>
-    <t>postal | physical | both</t>
-  </si>
-  <si>
-    <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
-  </si>
-  <si>
-    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
-  </si>
-  <si>
-    <t>both</t>
-  </si>
-  <si>
-    <t>The type of an address (physical / postal).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/address-type|4.0.1</t>
-  </si>
-  <si>
-    <t>Address.type</t>
-  </si>
-  <si>
-    <t>XAD.18</t>
-  </si>
-  <si>
-    <t>Practitioner.address.text</t>
-  </si>
-  <si>
-    <t>Text representation of the address</t>
-  </si>
-  <si>
-    <t>Specifies the entire address as it should be displayed e.g. on a postal label. This may be provided instead of or as well as the specific parts.</t>
-  </si>
-  <si>
-    <t>Can provide both a text representation and parts. Applications updating an address SHALL ensure that  when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
-  </si>
-  <si>
-    <t>137 Nowhere Street, Erewhon 9132</t>
-  </si>
-  <si>
-    <t>Address.text</t>
-  </si>
-  <si>
-    <t>XAD.1 + XAD.2 + XAD.3 + XAD.4 + XAD.5 + XAD.6</t>
-  </si>
-  <si>
-    <t>Practitioner.address.line</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Street name, number, direction &amp; P.O. Box etc.</t>
-  </si>
-  <si>
-    <t>This component contains the house number, apartment number, street name, street direction,  P.O. Box number, delivery hints, and similar address information.</t>
-  </si>
-  <si>
-    <t>137 Nowhere Street</t>
-  </si>
-  <si>
-    <t>Address.line</t>
-  </si>
-  <si>
-    <t>XAD.1 + XAD.2 (note: XAD.1 and XAD.2 have different meanings for a company address than for a person address)</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = AL]</t>
-  </si>
-  <si>
-    <t>./StreetAddress (newline delimitted)</t>
-  </si>
-  <si>
-    <t>Practitioner.address.city</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Municpality
-</t>
-  </si>
-  <si>
-    <t>Name of city, town etc.</t>
-  </si>
-  <si>
-    <t>The name of the city, town, suburb, village or other community or delivery center.</t>
-  </si>
-  <si>
-    <t>Erewhon</t>
-  </si>
-  <si>
-    <t>Address.city</t>
-  </si>
-  <si>
-    <t>XAD.3</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = CTY]</t>
-  </si>
-  <si>
-    <t>./Jurisdiction</t>
-  </si>
-  <si>
-    <t>Practitioner.address.district</t>
-  </si>
-  <si>
-    <t xml:space="preserve">County
-</t>
-  </si>
-  <si>
-    <t>District name (aka county)</t>
-  </si>
-  <si>
-    <t>The name of the administrative area (county).</t>
-  </si>
-  <si>
-    <t>District is sometimes known as county, but in some regions 'county' is used in place of city (municipality), so county name should be conveyed in city instead.</t>
-  </si>
-  <si>
-    <t>Madison</t>
-  </si>
-  <si>
-    <t>Address.district</t>
-  </si>
-  <si>
-    <t>XAD.9</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = CNT | CPA]</t>
-  </si>
-  <si>
-    <t>Practitioner.address.state</t>
-  </si>
-  <si>
-    <t>Province
-Territory</t>
-  </si>
-  <si>
-    <t>Sub-unit of country (abbreviations ok)</t>
-  </si>
-  <si>
-    <t>Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (e.g. US 2 letter state codes).</t>
-  </si>
-  <si>
-    <t>Two letter USPS alphabetic codes.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-usps-state</t>
-  </si>
-  <si>
-    <t>Address.state</t>
-  </si>
-  <si>
-    <t>XAD.4</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = STA]</t>
-  </si>
-  <si>
-    <t>./Sites</t>
-  </si>
-  <si>
-    <t>Practitioner.address.postalCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zip
-</t>
-  </si>
-  <si>
-    <t>US Zip Codes</t>
-  </si>
-  <si>
-    <t>A postal code designating a region defined by the postal service.</t>
-  </si>
-  <si>
-    <t>9132</t>
-  </si>
-  <si>
-    <t>Address.postalCode</t>
-  </si>
-  <si>
-    <t>XAD.5</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = ZIP]</t>
-  </si>
-  <si>
-    <t>./PostalIdentificationCode</t>
-  </si>
-  <si>
-    <t>Practitioner.address.country</t>
-  </si>
-  <si>
-    <t>Country (e.g. can be ISO 3166 2 or 3 letter code)</t>
-  </si>
-  <si>
-    <t>Country - a nation as commonly understood or generally accepted.</t>
-  </si>
-  <si>
-    <t>ISO 3166 3 letter codes can be used in place of a human readable country name.</t>
-  </si>
-  <si>
-    <t>Address.country</t>
-  </si>
-  <si>
-    <t>XAD.6</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = CNT]</t>
-  </si>
-  <si>
-    <t>./Country</t>
-  </si>
-  <si>
-    <t>Practitioner.address.period</t>
-  </si>
-  <si>
-    <t>Time period when address was/is in use</t>
-  </si>
-  <si>
-    <t>Time period when address was/is in use.</t>
-  </si>
-  <si>
-    <t>Allows addresses to be placed in historical context.</t>
-  </si>
-  <si>
-    <t>&lt;valuePeriod xmlns="http://hl7.org/fhir"&gt;
-  &lt;start value="2010-03-23"/&gt;
-  &lt;end value="2010-07-01"/&gt;
-&lt;/valuePeriod&gt;</t>
-  </si>
-  <si>
-    <t>Address.period</t>
-  </si>
-  <si>
-    <t>XAD.12 / XAD.13 + XAD.14</t>
+    <t>./Addresses</t>
   </si>
   <si>
     <t>Practitioner.gender</t>
@@ -1988,7 +1592,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP64"/>
+  <dimension ref="A1:AP45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2032,7 +1636,7 @@
     <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="102.75390625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="54.6015625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="99.69140625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="51.21484375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
@@ -2204,9 +1808,7 @@
       <c r="M2" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="N2" t="s" s="2">
-        <v>83</v>
-      </c>
+      <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
         <v>81</v>
@@ -5795,7 +5397,7 @@
         <v>80</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>81</v>
@@ -5914,7 +5516,7 @@
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>81</v>
@@ -5923,19 +5525,23 @@
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>160</v>
+        <v>324</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>161</v>
+        <v>325</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>81</v>
       </c>
@@ -5983,28 +5589,28 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>163</v>
+        <v>323</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>81</v>
+        <v>329</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>164</v>
+        <v>330</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>81</v>
+        <v>331</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>81</v>
@@ -6018,21 +5624,21 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>81</v>
@@ -6041,21 +5647,21 @@
         <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>137</v>
+        <v>333</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>81</v>
       </c>
@@ -6079,52 +5685,52 @@
         <v>81</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>81</v>
+        <v>175</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>81</v>
+        <v>336</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>81</v>
+        <v>337</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>168</v>
+        <v>81</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>154</v>
+        <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>169</v>
+        <v>332</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>81</v>
+        <v>338</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>164</v>
+        <v>339</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>81</v>
+        <v>340</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>81</v>
@@ -6138,10 +5744,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6155,7 +5761,7 @@
         <v>90</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>81</v>
@@ -6164,16 +5770,18 @@
         <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>110</v>
+        <v>342</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>81</v>
       </c>
@@ -6197,13 +5805,13 @@
         <v>81</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>328</v>
+        <v>81</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>329</v>
+        <v>81</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>81</v>
@@ -6221,7 +5829,7 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -6230,19 +5838,19 @@
         <v>90</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>331</v>
+        <v>81</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>81</v>
@@ -6256,10 +5864,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6270,31 +5878,29 @@
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>160</v>
+        <v>350</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>338</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>81</v>
@@ -6343,13 +5949,13 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>81</v>
@@ -6358,13 +5964,13 @@
         <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>341</v>
+        <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>211</v>
+        <v>355</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
@@ -6378,10 +5984,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6392,32 +5998,28 @@
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>110</v>
+        <v>357</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>81</v>
       </c>
@@ -6441,13 +6043,13 @@
         <v>81</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>348</v>
+        <v>81</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>349</v>
+        <v>81</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>81</v>
@@ -6465,13 +6067,13 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>81</v>
@@ -6480,13 +6082,13 @@
         <v>102</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>263</v>
+        <v>361</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
@@ -6500,10 +6102,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6523,20 +6125,18 @@
         <v>81</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>354</v>
+        <v>160</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>355</v>
+        <v>161</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>357</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>81</v>
@@ -6585,7 +6185,7 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>358</v>
+        <v>163</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6597,10 +6197,10 @@
         <v>81</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>164</v>
+        <v>81</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>164</v>
@@ -6620,21 +6220,21 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>81</v>
@@ -6643,18 +6243,20 @@
         <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>215</v>
+        <v>136</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>360</v>
+        <v>137</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>81</v>
@@ -6703,28 +6305,28 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>362</v>
+        <v>169</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>133</v>
+        <v>81</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>312</v>
+        <v>164</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>221</v>
+        <v>81</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>81</v>
@@ -6738,14 +6340,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>81</v>
+        <v>366</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6755,28 +6357,28 @@
         <v>80</v>
       </c>
       <c r="H40" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I40" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>364</v>
+        <v>136</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>367</v>
+        <v>139</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>368</v>
+        <v>145</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>81</v>
@@ -6825,7 +6427,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6837,16 +6439,16 @@
         <v>81</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>369</v>
+        <v>81</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>370</v>
+        <v>133</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>164</v>
+        <v>81</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
@@ -6860,10 +6462,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6874,7 +6476,7 @@
         <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>81</v>
@@ -6886,16 +6488,18 @@
         <v>81</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>161</v>
+        <v>371</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>162</v>
+        <v>372</v>
       </c>
       <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>81</v>
       </c>
@@ -6943,25 +6547,25 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>163</v>
+        <v>370</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>164</v>
+        <v>374</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>81</v>
@@ -6978,21 +6582,21 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>81</v>
@@ -7004,17 +6608,15 @@
         <v>81</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>136</v>
+        <v>181</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>137</v>
+        <v>376</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>81</v>
@@ -7039,52 +6641,52 @@
         <v>81</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>81</v>
+        <v>378</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>81</v>
+        <v>379</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>81</v>
+        <v>380</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>168</v>
+        <v>81</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>154</v>
+        <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>169</v>
+        <v>375</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>164</v>
+        <v>361</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>81</v>
+        <v>381</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -7098,10 +6700,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7118,25 +6720,23 @@
         <v>81</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>110</v>
+        <v>215</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>81</v>
@@ -7149,7 +6749,7 @@
         <v>81</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>378</v>
+        <v>81</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>81</v>
@@ -7161,13 +6761,13 @@
         <v>81</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>379</v>
+        <v>81</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>380</v>
+        <v>81</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>81</v>
@@ -7185,7 +6785,7 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -7200,13 +6800,13 @@
         <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>382</v>
+        <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>263</v>
+        <v>386</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>81</v>
@@ -7220,10 +6820,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7243,20 +6843,18 @@
         <v>81</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>110</v>
+        <v>223</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>81</v>
@@ -7269,43 +6867,43 @@
         <v>81</v>
       </c>
       <c r="T44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF44" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7320,10 +6918,10 @@
         <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>392</v>
+        <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>263</v>
+        <v>391</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>81</v>
@@ -7340,10 +6938,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7354,7 +6952,7 @@
         <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>81</v>
@@ -7363,22 +6961,22 @@
         <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="N45" t="s" s="2">
+      <c r="O45" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>81</v>
@@ -7391,7 +6989,7 @@
         <v>81</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>397</v>
+        <v>81</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>81</v>
@@ -7403,13 +7001,13 @@
         <v>81</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>81</v>
@@ -7427,13 +7025,13 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>81</v>
@@ -7442,2294 +7040,26 @@
         <v>102</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="AL45" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46" hidden="true">
-      <c r="A46" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G46" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-      <c r="P46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q46" s="2"/>
-      <c r="R46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP46" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="47" hidden="true">
-      <c r="A47" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="E47" s="2"/>
-      <c r="F47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G47" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q47" s="2"/>
-      <c r="R47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T47" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP47" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="48" hidden="true">
-      <c r="A48" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="E48" s="2"/>
-      <c r="F48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K48" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="O48" s="2"/>
-      <c r="P48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q48" s="2"/>
-      <c r="R48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T48" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP48" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="49" hidden="true">
-      <c r="A49" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="E49" s="2"/>
-      <c r="F49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K49" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q49" s="2"/>
-      <c r="R49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP49" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="50" hidden="true">
-      <c r="A50" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="E50" s="2"/>
-      <c r="F50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="P50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q50" s="2"/>
-      <c r="R50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T50" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP50" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="51" hidden="true">
-      <c r="A51" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="O51" s="2"/>
-      <c r="P51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q51" s="2"/>
-      <c r="R51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP51" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="52" hidden="true">
-      <c r="A52" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="P52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q52" s="2"/>
-      <c r="R52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP52" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="53" hidden="true">
-      <c r="A53" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E53" s="2"/>
-      <c r="F53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="P53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q53" s="2"/>
-      <c r="R53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP53" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" hidden="true">
-      <c r="A54" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="P54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q54" s="2"/>
-      <c r="R54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP54" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="55" hidden="true">
-      <c r="A55" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E55" s="2"/>
-      <c r="F55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="P55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q55" s="2"/>
-      <c r="R55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP55" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="56" hidden="true">
-      <c r="A56" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
-      <c r="P56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q56" s="2"/>
-      <c r="R56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP56" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="57" hidden="true">
-      <c r="A57" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
-      <c r="P57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q57" s="2"/>
-      <c r="R57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP57" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="58" hidden="true">
-      <c r="A58" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O58" s="2"/>
-      <c r="P58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q58" s="2"/>
-      <c r="R58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP58" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="59" hidden="true">
-      <c r="A59" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="E59" s="2"/>
-      <c r="F59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="P59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q59" s="2"/>
-      <c r="R59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP59" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="60" hidden="true">
-      <c r="A60" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E60" s="2"/>
-      <c r="F60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="P60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q60" s="2"/>
-      <c r="R60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP60" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="61" hidden="true">
-      <c r="A61" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E61" s="2"/>
-      <c r="F61" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
-      <c r="P61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q61" s="2"/>
-      <c r="R61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP61" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="62" hidden="true">
-      <c r="A62" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="F62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="P62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q62" s="2"/>
-      <c r="R62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP62" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="63" hidden="true">
-      <c r="A63" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E63" s="2"/>
-      <c r="F63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
-      <c r="P63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q63" s="2"/>
-      <c r="R63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP63" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="64" hidden="true">
-      <c r="A64" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E64" s="2"/>
-      <c r="F64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="P64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q64" s="2"/>
-      <c r="R64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="AP64" t="s" s="2">
         <v>81</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP64">
+  <autoFilter ref="A1:AP45">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9739,7 +7069,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI63">
+  <conditionalFormatting sqref="A2:AI44">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="402">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1-beta</t>
+    <t>0.1.2-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-05T09:18:04-06:00</t>
+    <t>2023-01-10T07:11:45-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,7 +87,8 @@
     <t>A profile on the Practitioner resource for MHV PHR exposing Practitioner using FHIR API.
 - based on US-Core for Practitioner
 - used for UserTO, and AuthorTO
-- might be used for PersonTO or is that RelatedPerson?</t>
+- might be used for PersonTO or is that RelatedPerson?
+Mapping to [VDIF UserTO](StructureDefinition-VA.MHV.PHR.practitioner-mappings.html#mappings-for-vdif-to-mhv-phr-userto) and [VDIF AuthorTO](StructureDefinition-VA.MHV.PHR.practitioner-mappings.html#mappings-for-vdif-to-mhv-phr-authorto)</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -268,6 +269,10 @@
     <t/>
   </si>
   <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
     <t>A person with a  formal responsibility in the provisioning of healthcare or related services</t>
   </si>
   <si>
@@ -643,10 +648,10 @@
     <t>./IdentifierType</t>
   </si>
   <si>
-    <t>https://johnmoehrke.github.io/MHV-PHR/Vista/111/UserTO.id</t>
-  </si>
-  <si>
-    <t>https://johnmoehrke.github.io/MHV-PHR/Vista/111/AuthorTO.id</t>
+    <t>`https://johnmoehrke.github.io/MHV-PHR/Vista/111/UserTO.id`</t>
+  </si>
+  <si>
+    <t>`https://johnmoehrke.github.io/MHV-PHR/Vista/111/AuthorTO.id`</t>
   </si>
   <si>
     <t>Practitioner.identifier.value</t>
@@ -1640,8 +1645,8 @@
     <col min="38" max="38" width="99.69140625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="51.21484375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="57.421875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="59.5390625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="58.703125" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="60.81640625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1800,13 +1805,13 @@
         <v>81</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1872,30 +1877,30 @@
         <v>81</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AP2" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1906,7 +1911,7 @@
         <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>81</v>
@@ -1915,19 +1920,19 @@
         <v>81</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1977,13 +1982,13 @@
         <v>81</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>81</v>
@@ -2012,10 +2017,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2026,7 +2031,7 @@
         <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>81</v>
@@ -2035,16 +2040,16 @@
         <v>81</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2095,19 +2100,19 @@
         <v>81</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>81</v>
@@ -2130,10 +2135,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2144,28 +2149,28 @@
         <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2215,19 +2220,19 @@
         <v>81</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>81</v>
@@ -2250,10 +2255,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2264,7 +2269,7 @@
         <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>81</v>
@@ -2276,16 +2281,16 @@
         <v>81</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2311,13 +2316,13 @@
         <v>81</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>81</v>
@@ -2335,19 +2340,19 @@
         <v>81</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>81</v>
@@ -2370,21 +2375,21 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>81</v>
@@ -2396,16 +2401,16 @@
         <v>81</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2455,25 +2460,25 @@
         <v>81</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>81</v>
@@ -2490,14 +2495,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2516,16 +2521,16 @@
         <v>81</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2575,7 +2580,7 @@
         <v>81</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>79</v>
@@ -2593,7 +2598,7 @@
         <v>81</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>81</v>
@@ -2610,14 +2615,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2636,16 +2641,16 @@
         <v>81</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2695,7 +2700,7 @@
         <v>81</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>79</v>
@@ -2707,13 +2712,13 @@
         <v>81</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>81</v>
@@ -2730,14 +2735,14 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2750,25 +2755,25 @@
         <v>81</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>81</v>
@@ -2817,7 +2822,7 @@
         <v>81</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -2829,13 +2834,13 @@
         <v>81</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>81</v>
@@ -2852,10 +2857,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2863,34 +2868,34 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>81</v>
@@ -2927,17 +2932,17 @@
         <v>81</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AC11" s="2"/>
       <c r="AD11" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -2949,19 +2954,19 @@
         <v>81</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>81</v>
@@ -2972,10 +2977,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2986,7 +2991,7 @@
         <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>81</v>
@@ -2998,13 +3003,13 @@
         <v>81</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3055,13 +3060,13 @@
         <v>81</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>81</v>
@@ -3073,7 +3078,7 @@
         <v>81</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>81</v>
@@ -3090,14 +3095,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3116,16 +3121,16 @@
         <v>81</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3163,19 +3168,19 @@
         <v>81</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -3187,13 +3192,13 @@
         <v>81</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>81</v>
@@ -3210,10 +3215,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3224,31 +3229,31 @@
         <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>81</v>
@@ -3273,13 +3278,13 @@
         <v>81</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>81</v>
@@ -3297,25 +3302,25 @@
         <v>81</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>81</v>
@@ -3332,10 +3337,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3346,7 +3351,7 @@
         <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>81</v>
@@ -3355,22 +3360,22 @@
         <v>81</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>81</v>
@@ -3395,13 +3400,13 @@
         <v>81</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>81</v>
@@ -3419,25 +3424,25 @@
         <v>81</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>81</v>
@@ -3454,10 +3459,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3465,34 +3470,34 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>81</v>
@@ -3505,7 +3510,7 @@
         <v>81</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>81</v>
@@ -3541,45 +3546,45 @@
         <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3587,31 +3592,31 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3625,7 +3630,7 @@
         <v>81</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>81</v>
@@ -3661,45 +3666,45 @@
         <v>81</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3710,7 +3715,7 @@
         <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>81</v>
@@ -3719,16 +3724,16 @@
         <v>81</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3779,28 +3784,28 @@
         <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>81</v>
@@ -3814,10 +3819,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3828,7 +3833,7 @@
         <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>81</v>
@@ -3837,19 +3842,19 @@
         <v>81</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3899,28 +3904,28 @@
         <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>81</v>
@@ -3934,13 +3939,13 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>81</v>
@@ -3950,29 +3955,29 @@
         <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>81</v>
@@ -3982,7 +3987,7 @@
         <v>81</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>81</v>
@@ -4021,7 +4026,7 @@
         <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4033,19 +4038,19 @@
         <v>81</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>81</v>
@@ -4056,10 +4061,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4070,7 +4075,7 @@
         <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>81</v>
@@ -4079,97 +4084,97 @@
         <v>81</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="P21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q21" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="R21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH21" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="K21" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="P21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q21" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="R21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="AI21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>81</v>
@@ -4180,10 +4185,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4191,34 +4196,34 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>81</v>
@@ -4267,7 +4272,7 @@
         <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4279,16 +4284,16 @@
         <v>81</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>81</v>
@@ -4302,10 +4307,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4316,7 +4321,7 @@
         <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>81</v>
@@ -4328,13 +4333,13 @@
         <v>81</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4385,13 +4390,13 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>81</v>
@@ -4403,7 +4408,7 @@
         <v>81</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>81</v>
@@ -4420,14 +4425,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4446,16 +4451,16 @@
         <v>81</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4493,19 +4498,19 @@
         <v>81</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4517,13 +4522,13 @@
         <v>81</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>81</v>
@@ -4540,10 +4545,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4554,31 +4559,31 @@
         <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>81</v>
@@ -4603,13 +4608,13 @@
         <v>81</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>81</v>
@@ -4627,28 +4632,28 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>81</v>
@@ -4662,10 +4667,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4676,7 +4681,7 @@
         <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>81</v>
@@ -4685,22 +4690,22 @@
         <v>81</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>81</v>
@@ -4749,25 +4754,25 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>81</v>
@@ -4776,50 +4781,50 @@
         <v>81</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4869,28 +4874,28 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>81</v>
@@ -4904,14 +4909,14 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4927,19 +4932,19 @@
         <v>81</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4989,7 +4994,7 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5001,16 +5006,16 @@
         <v>81</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>81</v>
@@ -5024,10 +5029,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5047,16 +5052,16 @@
         <v>81</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5107,7 +5112,7 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5119,16 +5124,16 @@
         <v>81</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>81</v>
@@ -5142,10 +5147,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5165,16 +5170,16 @@
         <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5225,7 +5230,7 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5237,13 +5242,13 @@
         <v>81</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>81</v>
@@ -5260,10 +5265,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5274,7 +5279,7 @@
         <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>81</v>
@@ -5283,20 +5288,20 @@
         <v>81</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>81</v>
@@ -5345,28 +5350,28 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>81</v>
@@ -5380,10 +5385,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5403,22 +5408,22 @@
         <v>81</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>81</v>
@@ -5467,7 +5472,7 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5479,22 +5484,22 @@
         <v>81</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>81</v>
@@ -5502,10 +5507,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5525,22 +5530,22 @@
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>81</v>
@@ -5589,7 +5594,7 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5601,16 +5606,16 @@
         <v>81</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>81</v>
@@ -5624,10 +5629,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5638,7 +5643,7 @@
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>81</v>
@@ -5647,20 +5652,20 @@
         <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>81</v>
@@ -5685,13 +5690,13 @@
         <v>81</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>81</v>
@@ -5709,28 +5714,28 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>81</v>
@@ -5744,10 +5749,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5758,7 +5763,7 @@
         <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>81</v>
@@ -5767,20 +5772,20 @@
         <v>81</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>81</v>
@@ -5829,28 +5834,28 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>81</v>
@@ -5864,10 +5869,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5890,17 +5895,17 @@
         <v>81</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>81</v>
@@ -5949,7 +5954,7 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -5961,16 +5966,16 @@
         <v>81</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
@@ -5984,10 +5989,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6010,13 +6015,13 @@
         <v>81</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6067,7 +6072,7 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6079,16 +6084,16 @@
         <v>81</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
@@ -6102,10 +6107,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6116,7 +6121,7 @@
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>81</v>
@@ -6128,13 +6133,13 @@
         <v>81</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6185,13 +6190,13 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>81</v>
@@ -6203,7 +6208,7 @@
         <v>81</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>81</v>
@@ -6220,14 +6225,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6246,16 +6251,16 @@
         <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6305,7 +6310,7 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6317,13 +6322,13 @@
         <v>81</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>81</v>
@@ -6340,14 +6345,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6360,25 +6365,25 @@
         <v>81</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>81</v>
@@ -6427,7 +6432,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6439,13 +6444,13 @@
         <v>81</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>81</v>
@@ -6462,10 +6467,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6488,17 +6493,17 @@
         <v>81</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>81</v>
@@ -6547,7 +6552,7 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6559,13 +6564,13 @@
         <v>81</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>81</v>
@@ -6582,10 +6587,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6593,10 +6598,10 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>81</v>
@@ -6608,13 +6613,13 @@
         <v>81</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6641,13 +6646,13 @@
         <v>81</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>81</v>
@@ -6665,28 +6670,28 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -6700,10 +6705,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6714,7 +6719,7 @@
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>81</v>
@@ -6726,17 +6731,17 @@
         <v>81</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>81</v>
@@ -6785,28 +6790,28 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>81</v>
@@ -6820,10 +6825,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6834,7 +6839,7 @@
         <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>81</v>
@@ -6846,13 +6851,13 @@
         <v>81</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6903,25 +6908,25 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>81</v>
@@ -6938,10 +6943,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6964,19 +6969,19 @@
         <v>81</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>81</v>
@@ -7001,13 +7006,13 @@
         <v>81</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>81</v>
@@ -7025,7 +7030,7 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7037,22 +7042,22 @@
         <v>81</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>81</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-10T07:11:45-06:00</t>
+    <t>2023-01-10T08:15:50-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$64</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2475" uniqueCount="531">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.2-beta</t>
+    <t>0.1.3-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-10T08:15:50-06:00</t>
+    <t>2023-01-11T06:10:13-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -276,7 +276,7 @@
     <t>A person with a  formal responsibility in the provisioning of healthcare or related services</t>
   </si>
   <si>
-    <t>This is basic constraint on provider for use in US Core resources.</t>
+    <t>\-</t>
   </si>
   <si>
     <t>PRD (as one example)</t>
@@ -1031,6 +1031,128 @@
     <t>UserTO.emailAddress</t>
   </si>
   <si>
+    <t>Practitioner.telecom.id</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.system</t>
+  </si>
+  <si>
+    <t>phone | fax | email | pager | url | sms | other</t>
+  </si>
+  <si>
+    <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
+  </si>
+  <si>
+    <t>Telecommunications form for contact point.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-system|4.0.1</t>
+  </si>
+  <si>
+    <t>ContactPoint.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cpt-2
+</t>
+  </si>
+  <si>
+    <t>XTN.3</t>
+  </si>
+  <si>
+    <t>./scheme</t>
+  </si>
+  <si>
+    <t>./ContactPointType</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.value</t>
+  </si>
+  <si>
+    <t>The actual contact point details</t>
+  </si>
+  <si>
+    <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
+  </si>
+  <si>
+    <t>Additional text data such as phone extension numbers, or notes about use of the contact are sometimes included in the value.</t>
+  </si>
+  <si>
+    <t>Need to support legacy numbers that are not in a tightly controlled format.</t>
+  </si>
+  <si>
+    <t>ContactPoint.value</t>
+  </si>
+  <si>
+    <t>XTN.1 (or XTN.12)</t>
+  </si>
+  <si>
+    <t>./url</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.use</t>
+  </si>
+  <si>
+    <t>home | work | temp | old | mobile - purpose of this contact point</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for the contact point.</t>
+  </si>
+  <si>
+    <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
+  </si>
+  <si>
+    <t>Use of contact point.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>
+  </si>
+  <si>
+    <t>ContactPoint.use</t>
+  </si>
+  <si>
+    <t>XTN.2 - but often indicated by field</t>
+  </si>
+  <si>
+    <t>./ContactPointPurpose</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positiveInt
+</t>
+  </si>
+  <si>
+    <t>Specify preferred order of use (1 = highest)</t>
+  </si>
+  <si>
+    <t>Specifies a preferred order in which to use a set of contacts. ContactPoints with lower rank values are more preferred than those with higher rank values.</t>
+  </si>
+  <si>
+    <t>Note that rank does not necessarily follow the order in which the contacts are represented in the instance.</t>
+  </si>
+  <si>
+    <t>ContactPoint.rank</t>
+  </si>
+  <si>
+    <t>Practitioner.telecom.period</t>
+  </si>
+  <si>
+    <t>Time period when the contact point was/is in use</t>
+  </si>
+  <si>
+    <t>Time period when the contact point was/is in use.</t>
+  </si>
+  <si>
+    <t>ContactPoint.period</t>
+  </si>
+  <si>
     <t>Practitioner.address</t>
   </si>
   <si>
@@ -1057,7 +1179,281 @@
     <t>./addr</t>
   </si>
   <si>
-    <t>./Addresses</t>
+    <t>Practitioner.address.id</t>
+  </si>
+  <si>
+    <t>Practitioner.address.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.address.use</t>
+  </si>
+  <si>
+    <t>home | work | temp | old | billing - purpose of this address</t>
+  </si>
+  <si>
+    <t>The purpose of this address.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an address is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Allows an appropriate address to be chosen from a list of many.</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>The use of an address.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/address-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Address.use</t>
+  </si>
+  <si>
+    <t>XAD.7</t>
+  </si>
+  <si>
+    <t>./AddressPurpose</t>
+  </si>
+  <si>
+    <t>Practitioner.address.type</t>
+  </si>
+  <si>
+    <t>postal | physical | both</t>
+  </si>
+  <si>
+    <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
+  </si>
+  <si>
+    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
+  </si>
+  <si>
+    <t>both</t>
+  </si>
+  <si>
+    <t>The type of an address (physical / postal).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/address-type|4.0.1</t>
+  </si>
+  <si>
+    <t>Address.type</t>
+  </si>
+  <si>
+    <t>XAD.18</t>
+  </si>
+  <si>
+    <t>Practitioner.address.text</t>
+  </si>
+  <si>
+    <t>Text representation of the address</t>
+  </si>
+  <si>
+    <t>Specifies the entire address as it should be displayed e.g. on a postal label. This may be provided instead of or as well as the specific parts.</t>
+  </si>
+  <si>
+    <t>Can provide both a text representation and parts. Applications updating an address SHALL ensure that  when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
+  </si>
+  <si>
+    <t>137 Nowhere Street, Erewhon 9132</t>
+  </si>
+  <si>
+    <t>Address.text</t>
+  </si>
+  <si>
+    <t>XAD.1 + XAD.2 + XAD.3 + XAD.4 + XAD.5 + XAD.6</t>
+  </si>
+  <si>
+    <t>Practitioner.address.line</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Street name, number, direction &amp; P.O. Box etc.</t>
+  </si>
+  <si>
+    <t>This component contains the house number, apartment number, street name, street direction,  P.O. Box number, delivery hints, and similar address information.</t>
+  </si>
+  <si>
+    <t>137 Nowhere Street</t>
+  </si>
+  <si>
+    <t>Address.line</t>
+  </si>
+  <si>
+    <t>XAD.1 + XAD.2 (note: XAD.1 and XAD.2 have different meanings for a company address than for a person address)</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = AL]</t>
+  </si>
+  <si>
+    <t>./StreetAddress (newline delimitted)</t>
+  </si>
+  <si>
+    <t>Practitioner.address.city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Municpality
+</t>
+  </si>
+  <si>
+    <t>Name of city, town etc.</t>
+  </si>
+  <si>
+    <t>The name of the city, town, suburb, village or other community or delivery center.</t>
+  </si>
+  <si>
+    <t>Erewhon</t>
+  </si>
+  <si>
+    <t>Address.city</t>
+  </si>
+  <si>
+    <t>XAD.3</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = CTY]</t>
+  </si>
+  <si>
+    <t>./Jurisdiction</t>
+  </si>
+  <si>
+    <t>Practitioner.address.district</t>
+  </si>
+  <si>
+    <t xml:space="preserve">County
+</t>
+  </si>
+  <si>
+    <t>District name (aka county)</t>
+  </si>
+  <si>
+    <t>The name of the administrative area (county).</t>
+  </si>
+  <si>
+    <t>District is sometimes known as county, but in some regions 'county' is used in place of city (municipality), so county name should be conveyed in city instead.</t>
+  </si>
+  <si>
+    <t>Madison</t>
+  </si>
+  <si>
+    <t>Address.district</t>
+  </si>
+  <si>
+    <t>XAD.9</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = CNT | CPA]</t>
+  </si>
+  <si>
+    <t>Practitioner.address.state</t>
+  </si>
+  <si>
+    <t>Province
+Territory</t>
+  </si>
+  <si>
+    <t>Sub-unit of country (abbreviations ok)</t>
+  </si>
+  <si>
+    <t>Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (e.g. US 2 letter state codes).</t>
+  </si>
+  <si>
+    <t>Two letter USPS alphabetic codes.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-usps-state</t>
+  </si>
+  <si>
+    <t>Address.state</t>
+  </si>
+  <si>
+    <t>XAD.4</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = STA]</t>
+  </si>
+  <si>
+    <t>./Sites</t>
+  </si>
+  <si>
+    <t>Practitioner.address.postalCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zip
+</t>
+  </si>
+  <si>
+    <t>US Zip Codes</t>
+  </si>
+  <si>
+    <t>A postal code designating a region defined by the postal service.</t>
+  </si>
+  <si>
+    <t>9132</t>
+  </si>
+  <si>
+    <t>Address.postalCode</t>
+  </si>
+  <si>
+    <t>XAD.5</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = ZIP]</t>
+  </si>
+  <si>
+    <t>./PostalIdentificationCode</t>
+  </si>
+  <si>
+    <t>Practitioner.address.country</t>
+  </si>
+  <si>
+    <t>Country (e.g. can be ISO 3166 2 or 3 letter code)</t>
+  </si>
+  <si>
+    <t>Country - a nation as commonly understood or generally accepted.</t>
+  </si>
+  <si>
+    <t>ISO 3166 3 letter codes can be used in place of a human readable country name.</t>
+  </si>
+  <si>
+    <t>Address.country</t>
+  </si>
+  <si>
+    <t>XAD.6</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = CNT]</t>
+  </si>
+  <si>
+    <t>./Country</t>
+  </si>
+  <si>
+    <t>Practitioner.address.period</t>
+  </si>
+  <si>
+    <t>Time period when address was/is in use</t>
+  </si>
+  <si>
+    <t>Time period when address was/is in use.</t>
+  </si>
+  <si>
+    <t>Allows addresses to be placed in historical context.</t>
+  </si>
+  <si>
+    <t>&lt;valuePeriod xmlns="http://hl7.org/fhir"&gt;
+  &lt;start value="2010-03-23"/&gt;
+  &lt;end value="2010-07-01"/&gt;
+&lt;/valuePeriod&gt;</t>
+  </si>
+  <si>
+    <t>Address.period</t>
+  </si>
+  <si>
+    <t>XAD.12 / XAD.13 + XAD.14</t>
   </si>
   <si>
     <t>Practitioner.gender</t>
@@ -1597,7 +1993,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP45"/>
+  <dimension ref="A1:AP64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1641,7 +2037,7 @@
     <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="54.6015625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="102.75390625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="99.69140625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="51.21484375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
@@ -1813,7 +2209,9 @@
       <c r="M2" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="N2" s="2"/>
+      <c r="N2" t="s" s="2">
+        <v>84</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
         <v>81</v>
@@ -5402,7 +5800,7 @@
         <v>80</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>81</v>
@@ -5521,7 +5919,7 @@
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>81</v>
@@ -5530,23 +5928,19 @@
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>325</v>
+        <v>161</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>326</v>
+        <v>162</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>329</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>81</v>
       </c>
@@ -5594,28 +5988,28 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>324</v>
+        <v>164</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>330</v>
+        <v>81</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>331</v>
+        <v>165</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>332</v>
+        <v>81</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>81</v>
@@ -5629,21 +6023,21 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>81</v>
@@ -5652,21 +6046,21 @@
         <v>81</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>334</v>
+        <v>138</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
-        <v>336</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>81</v>
       </c>
@@ -5690,52 +6084,52 @@
         <v>81</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>176</v>
+        <v>81</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>337</v>
+        <v>81</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>338</v>
+        <v>81</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>81</v>
+        <v>169</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>81</v>
+        <v>155</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>333</v>
+        <v>170</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>339</v>
+        <v>81</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>340</v>
+        <v>165</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>341</v>
+        <v>81</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>81</v>
@@ -5749,10 +6143,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5766,7 +6160,7 @@
         <v>91</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>81</v>
@@ -5775,18 +6169,16 @@
         <v>92</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>343</v>
+        <v>111</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>346</v>
-      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>81</v>
       </c>
@@ -5810,13 +6202,13 @@
         <v>81</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>81</v>
+        <v>176</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>81</v>
+        <v>329</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>81</v>
+        <v>330</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>81</v>
@@ -5834,7 +6226,7 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5843,19 +6235,19 @@
         <v>91</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>81</v>
+        <v>332</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>81</v>
@@ -5869,10 +6261,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5883,29 +6275,31 @@
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>351</v>
+        <v>161</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="O36" t="s" s="2">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>81</v>
@@ -5954,13 +6348,13 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>81</v>
@@ -5969,13 +6363,13 @@
         <v>103</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>81</v>
+        <v>342</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>356</v>
+        <v>212</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
@@ -5989,10 +6383,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6003,28 +6397,32 @@
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>358</v>
+        <v>111</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>81</v>
       </c>
@@ -6048,13 +6446,13 @@
         <v>81</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>81</v>
+        <v>176</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>81</v>
+        <v>349</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>81</v>
+        <v>350</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>81</v>
@@ -6072,13 +6470,13 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>81</v>
@@ -6087,13 +6485,13 @@
         <v>103</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>362</v>
+        <v>264</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
@@ -6107,10 +6505,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6130,18 +6528,20 @@
         <v>81</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>161</v>
+        <v>355</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>162</v>
+        <v>356</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>81</v>
@@ -6190,7 +6590,7 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>164</v>
+        <v>359</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6202,10 +6602,10 @@
         <v>81</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>165</v>
@@ -6225,21 +6625,21 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>81</v>
@@ -6248,20 +6648,18 @@
         <v>81</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>137</v>
+        <v>216</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>138</v>
+        <v>361</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>81</v>
@@ -6310,28 +6708,28 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>170</v>
+        <v>363</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>165</v>
+        <v>313</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>81</v>
+        <v>222</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>81</v>
@@ -6345,14 +6743,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>367</v>
+        <v>81</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6362,28 +6760,28 @@
         <v>80</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>137</v>
+        <v>365</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="N40" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>81</v>
@@ -6432,7 +6830,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6444,16 +6842,16 @@
         <v>81</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>81</v>
+        <v>370</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>134</v>
+        <v>371</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
@@ -6467,10 +6865,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6481,7 +6879,7 @@
         <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>81</v>
@@ -6493,18 +6891,16 @@
         <v>81</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>372</v>
+        <v>162</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>373</v>
+        <v>163</v>
       </c>
       <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>374</v>
-      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>81</v>
       </c>
@@ -6552,25 +6948,25 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>371</v>
+        <v>164</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>375</v>
+        <v>165</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>81</v>
@@ -6587,21 +6983,21 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>81</v>
@@ -6613,15 +7009,17 @@
         <v>81</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>182</v>
+        <v>137</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>377</v>
+        <v>138</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>81</v>
@@ -6646,52 +7044,52 @@
         <v>81</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>379</v>
+        <v>81</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>380</v>
+        <v>81</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>381</v>
+        <v>81</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>81</v>
+        <v>169</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>81</v>
+        <v>155</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>376</v>
+        <v>170</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>362</v>
+        <v>165</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>382</v>
+        <v>81</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -6705,10 +7103,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6725,23 +7123,25 @@
         <v>81</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>216</v>
+        <v>111</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="O43" t="s" s="2">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>81</v>
@@ -6754,7 +7154,7 @@
         <v>81</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>81</v>
+        <v>379</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>81</v>
@@ -6766,13 +7166,13 @@
         <v>81</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>81</v>
+        <v>176</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>81</v>
+        <v>380</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>81</v>
+        <v>381</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>81</v>
@@ -6790,7 +7190,7 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6805,13 +7205,13 @@
         <v>103</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>81</v>
+        <v>383</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>387</v>
+        <v>264</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>81</v>
@@ -6825,10 +7225,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6848,18 +7248,20 @@
         <v>81</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>224</v>
+        <v>111</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>81</v>
@@ -6872,7 +7274,7 @@
         <v>81</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>81</v>
+        <v>389</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>81</v>
@@ -6884,13 +7286,13 @@
         <v>81</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>81</v>
+        <v>176</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>81</v>
+        <v>390</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>81</v>
+        <v>391</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>81</v>
@@ -6908,7 +7310,7 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -6923,10 +7325,10 @@
         <v>103</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>81</v>
+        <v>393</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>392</v>
+        <v>264</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>81</v>
@@ -6943,10 +7345,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6957,7 +7359,7 @@
         <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>81</v>
@@ -6966,22 +7368,22 @@
         <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>397</v>
+        <v>270</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>81</v>
@@ -6994,7 +7396,7 @@
         <v>81</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>81</v>
+        <v>398</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>81</v>
@@ -7006,13 +7408,13 @@
         <v>81</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>81</v>
@@ -7030,13 +7432,13 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>81</v>
@@ -7045,26 +7447,2294 @@
         <v>103</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>399</v>
+        <v>273</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>400</v>
+        <v>81</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP45" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" hidden="true">
+      <c r="A46" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="AP45" t="s" s="2">
+      <c r="B46" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q46" s="2"/>
+      <c r="R46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP46" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP47" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="O48" s="2"/>
+      <c r="P48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP48" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q49" s="2"/>
+      <c r="R49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP49" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP50" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="O51" s="2"/>
+      <c r="P51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP51" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="P52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP52" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="P53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP53" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="P54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP54" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="P55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP55" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP56" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP57" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="O58" s="2"/>
+      <c r="P58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP58" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="P59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP59" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="P60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP60" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP61" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="P62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP62" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AP63" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="P64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AP64" t="s" s="2">
         <v>81</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP45">
+  <autoFilter ref="A1:AP64">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7074,7 +9744,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI44">
+  <conditionalFormatting sqref="A2:AI63">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T06:10:13-06:00</t>
+    <t>2023-02-02T16:50:30-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.3-beta</t>
+    <t>0.1.4-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T16:50:30-06:00</t>
+    <t>2023-02-03T09:54:41-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-03T09:54:41-06:00</t>
+    <t>2023-02-21T15:24:44-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.4-beta</t>
+    <t>0.1.5-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T15:24:44-06:00</t>
+    <t>2023-02-23T08:24:10-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T08:24:10-06:00</t>
+    <t>2023-02-23T08:47:22-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T08:47:22-06:00</t>
+    <t>2023-03-05T12:38:40-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$65</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2475" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2515" uniqueCount="540">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.5-beta</t>
+    <t>0.1.6-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T12:38:40-06:00</t>
+    <t>2023-03-23T11:34:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -519,225 +519,10 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
-    <t>Practitioner.identifier.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>CX.5</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>./IdentifierType</t>
-  </si>
-  <si>
-    <t>`https://johnmoehrke.github.io/MHV-PHR/Vista/111/UserTO.id`</t>
-  </si>
-  <si>
-    <t>`https://johnmoehrke.github.io/MHV-PHR/Vista/111/AuthorTO.id`</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.value</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>./Value</t>
-  </si>
-  <si>
-    <t>UserTO.ids</t>
-  </si>
-  <si>
-    <t>AuthorTO.id</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>./StartDate and ./EndDate</t>
-  </si>
-  <si>
-    <t>Practitioner.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>./IdentifierIssuingAuthority</t>
+    <t>{StationNbr} and {UserTO.id}</t>
+  </si>
+  <si>
+    <t>{StationNbr} and {AuthorTO.id}</t>
   </si>
   <si>
     <t>Practitioner.identifier:NPI</t>
@@ -749,6 +534,248 @@
     <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
   &lt;system value="http://hl7.org/fhir/sid/us-npi"/&gt;
 &lt;/valueIdentifier&gt;</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier:TOid</t>
+  </si>
+  <si>
+    <t>TOid</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier:TOid.id</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier:TOid.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier:TOid.use</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>usual</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier:TOid.type</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier:TOid.system</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.system</t>
+  </si>
+  <si>
+    <t>urn:oid:2.16.840.1.113883.4.349.4.{stationNbr}</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>./IdentifierType</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier:TOid.value</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.value</t>
+  </si>
+  <si>
+    <t>`AuthorTO` | `.` | {AuthorTO.id}</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>./Value</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier:TOid.period</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>./StartDate and ./EndDate</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier:TOid.assigner</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>./IdentifierIssuingAuthority</t>
   </si>
   <si>
     <t>Practitioner.active</t>
@@ -1993,7 +2020,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP64"/>
+  <dimension ref="A1:AP65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2041,8 +2068,8 @@
     <col min="38" max="38" width="99.69140625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="51.21484375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="58.703125" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="60.81640625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="26.74609375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="28.859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3367,20 +3394,22 @@
         <v>159</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="AP11" t="s" s="2">
-        <v>81</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>81</v>
       </c>
@@ -3392,25 +3421,27 @@
         <v>91</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+      <c r="O12" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="P12" t="s" s="2">
         <v>81</v>
       </c>
@@ -3419,7 +3450,7 @@
         <v>81</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>81</v>
+        <v>164</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>81</v>
@@ -3458,31 +3489,31 @@
         <v>81</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>81</v>
+        <v>156</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>81</v>
+        <v>158</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>81</v>
@@ -3493,14 +3524,16 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="C13" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3510,27 +3543,29 @@
         <v>80</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O13" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="O13" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="P13" t="s" s="2">
         <v>81</v>
       </c>
@@ -3566,19 +3601,19 @@
         <v>81</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>168</v>
+        <v>81</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>169</v>
+        <v>81</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>155</v>
+        <v>81</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -3590,19 +3625,19 @@
         <v>81</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>81</v>
+        <v>156</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>81</v>
+        <v>158</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>81</v>
@@ -3613,10 +3648,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3633,26 +3668,22 @@
         <v>81</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>81</v>
       </c>
@@ -3676,13 +3707,13 @@
         <v>81</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>176</v>
+        <v>81</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>177</v>
+        <v>81</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>178</v>
+        <v>81</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>81</v>
@@ -3700,7 +3731,7 @@
         <v>81</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3712,13 +3743,13 @@
         <v>81</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>81</v>
@@ -3735,21 +3766,21 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>81</v>
@@ -3758,23 +3789,21 @@
         <v>81</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>182</v>
+        <v>137</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>183</v>
+        <v>138</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>81</v>
       </c>
@@ -3798,49 +3827,49 @@
         <v>81</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>187</v>
+        <v>81</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>188</v>
+        <v>81</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>189</v>
+        <v>81</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>81</v>
+        <v>178</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>81</v>
+        <v>155</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>191</v>
+        <v>81</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>81</v>
@@ -3857,10 +3886,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3868,34 +3897,34 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>81</v>
@@ -3905,10 +3934,10 @@
         <v>81</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>81</v>
+        <v>186</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>197</v>
+        <v>81</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>81</v>
@@ -3920,13 +3949,13 @@
         <v>81</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>81</v>
+        <v>187</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>81</v>
+        <v>188</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>81</v>
+        <v>189</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>81</v>
@@ -3944,7 +3973,7 @@
         <v>81</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3959,30 +3988,30 @@
         <v>103</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>199</v>
+        <v>134</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>201</v>
+        <v>81</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>202</v>
+        <v>81</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>203</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3990,13 +4019,13 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>81</v>
@@ -4005,18 +4034,20 @@
         <v>92</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="O17" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="P17" t="s" s="2">
         <v>81</v>
       </c>
@@ -4028,7 +4059,7 @@
         <v>81</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>208</v>
+        <v>81</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>81</v>
@@ -4040,13 +4071,13 @@
         <v>81</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>81</v>
+        <v>199</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>81</v>
+        <v>200</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>81</v>
@@ -4064,7 +4095,7 @@
         <v>81</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -4079,30 +4110,30 @@
         <v>103</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>212</v>
+        <v>81</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>213</v>
+        <v>81</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>214</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4125,16 +4156,20 @@
         <v>92</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>216</v>
+        <v>105</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="P18" t="s" s="2">
         <v>81</v>
       </c>
@@ -4146,7 +4181,7 @@
         <v>81</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>81</v>
+        <v>210</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>81</v>
@@ -4182,7 +4217,7 @@
         <v>81</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -4197,13 +4232,13 @@
         <v>103</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>81</v>
@@ -4217,10 +4252,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4243,16 +4278,16 @@
         <v>92</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>224</v>
+        <v>169</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4266,7 +4301,7 @@
         <v>81</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>81</v>
+        <v>220</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>81</v>
@@ -4302,7 +4337,7 @@
         <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -4317,13 +4352,13 @@
         <v>103</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>81</v>
@@ -4337,14 +4372,12 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
         <v>81</v>
       </c>
@@ -4356,7 +4389,7 @@
         <v>91</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>81</v>
@@ -4365,18 +4398,16 @@
         <v>92</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>149</v>
+        <v>227</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>150</v>
+        <v>228</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>151</v>
+        <v>229</v>
       </c>
       <c r="N20" s="2"/>
-      <c r="O20" t="s" s="2">
-        <v>153</v>
-      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>81</v>
       </c>
@@ -4385,7 +4416,7 @@
         <v>81</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>234</v>
+        <v>81</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>81</v>
@@ -4424,13 +4455,13 @@
         <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>148</v>
+        <v>230</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>81</v>
@@ -4439,16 +4470,16 @@
         <v>103</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>156</v>
+        <v>231</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>157</v>
+        <v>232</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>158</v>
+        <v>233</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>81</v>
@@ -4459,7 +4490,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>235</v>
@@ -4496,59 +4527,55 @@
       <c r="N21" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="O21" t="s" s="2">
+      <c r="O21" s="2"/>
+      <c r="P21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q21" s="2"/>
+      <c r="R21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF21" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="P21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q21" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="R21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4563,16 +4590,16 @@
         <v>103</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>81</v>
+        <v>241</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>242</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>81</v>
+        <v>243</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>243</v>
+        <v>81</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>81</v>
@@ -4594,13 +4621,13 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G22" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G22" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="H22" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>81</v>
@@ -4626,7 +4653,9 @@
       <c r="P22" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q22" s="2"/>
+      <c r="Q22" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="R22" t="s" s="2">
         <v>81</v>
       </c>
@@ -4676,7 +4705,7 @@
         <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>81</v>
@@ -4685,16 +4714,16 @@
         <v>103</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>250</v>
+        <v>81</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>251</v>
       </c>
       <c r="AM22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>81</v>
@@ -4716,31 +4745,35 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>161</v>
+        <v>254</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>162</v>
+        <v>255</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>81</v>
       </c>
@@ -4788,28 +4821,28 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>164</v>
+        <v>253</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>81</v>
+        <v>259</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>165</v>
+        <v>260</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>81</v>
+        <v>261</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>81</v>
@@ -4823,21 +4856,21 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>81</v>
@@ -4849,17 +4882,15 @@
         <v>81</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>81</v>
@@ -4896,37 +4927,37 @@
         <v>81</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>168</v>
+        <v>81</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>169</v>
+        <v>81</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>155</v>
+        <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>81</v>
@@ -4943,46 +4974,44 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>256</v>
+        <v>138</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>257</v>
+        <v>176</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>259</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>81</v>
       </c>
@@ -5006,52 +5035,52 @@
         <v>81</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>176</v>
+        <v>81</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>260</v>
+        <v>81</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>261</v>
+        <v>81</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>81</v>
+        <v>178</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>81</v>
+        <v>155</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>262</v>
+        <v>179</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>263</v>
+        <v>81</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>264</v>
+        <v>173</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>81</v>
@@ -5065,10 +5094,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5085,25 +5114,25 @@
         <v>81</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>161</v>
+        <v>111</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>81</v>
@@ -5128,13 +5157,13 @@
         <v>81</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>81</v>
+        <v>187</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>81</v>
+        <v>269</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>81</v>
+        <v>270</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>81</v>
@@ -5173,38 +5202,38 @@
         <v>273</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>81</v>
+        <v>274</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>274</v>
+        <v>81</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>275</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>277</v>
+        <v>81</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>81</v>
@@ -5213,18 +5242,20 @@
         <v>92</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="N27" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>81</v>
       </c>
@@ -5272,7 +5303,7 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -5287,22 +5318,22 @@
         <v>103</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AN27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO27" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AP27" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AP27" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="28" hidden="true">
@@ -5318,13 +5349,13 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>81</v>
@@ -5333,7 +5364,7 @@
         <v>92</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="L28" t="s" s="2">
         <v>287</v>
@@ -5398,7 +5429,7 @@
         <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>81</v>
@@ -5434,7 +5465,7 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>81</v>
+        <v>295</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5453,15 +5484,17 @@
         <v>92</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>81</v>
@@ -5510,7 +5543,7 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5525,13 +5558,13 @@
         <v>103</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>81</v>
@@ -5545,10 +5578,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5571,13 +5604,13 @@
         <v>92</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5628,7 +5661,7 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5643,13 +5676,13 @@
         <v>103</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>81</v>
+        <v>309</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>81</v>
@@ -5663,10 +5696,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5677,7 +5710,7 @@
         <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>81</v>
@@ -5689,18 +5722,16 @@
         <v>92</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>216</v>
+        <v>169</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>310</v>
-      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>81</v>
       </c>
@@ -5748,13 +5779,13 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>81</v>
@@ -5763,13 +5794,13 @@
         <v>103</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>222</v>
+        <v>81</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>81</v>
@@ -5783,10 +5814,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5797,10 +5828,10 @@
         <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>81</v>
@@ -5809,17 +5840,15 @@
         <v>92</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>315</v>
+        <v>227</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N32" t="s" s="2">
         <v>318</v>
       </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>319</v>
       </c>
@@ -5870,13 +5899,13 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>81</v>
@@ -5885,19 +5914,19 @@
         <v>103</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>322</v>
+        <v>233</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>323</v>
+        <v>81</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>81</v>
@@ -5905,10 +5934,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5919,28 +5948,32 @@
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>161</v>
+        <v>324</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>162</v>
+        <v>325</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>81</v>
       </c>
@@ -5988,34 +6021,34 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>164</v>
+        <v>323</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>81</v>
+        <v>329</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>165</v>
+        <v>330</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>81</v>
+        <v>331</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>81</v>
+        <v>332</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>81</v>
@@ -6023,21 +6056,21 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>81</v>
@@ -6049,17 +6082,15 @@
         <v>81</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>81</v>
@@ -6096,37 +6127,37 @@
         <v>81</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>168</v>
+        <v>81</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>169</v>
+        <v>81</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>155</v>
+        <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>81</v>
@@ -6143,41 +6174,43 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>327</v>
+        <v>138</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>81</v>
@@ -6202,52 +6235,52 @@
         <v>81</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>176</v>
+        <v>81</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>329</v>
+        <v>81</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>330</v>
+        <v>81</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>81</v>
+        <v>178</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>81</v>
+        <v>155</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>331</v>
+        <v>179</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>332</v>
+        <v>81</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>333</v>
+        <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>334</v>
+        <v>173</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>335</v>
+        <v>81</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>81</v>
@@ -6261,10 +6294,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6287,20 +6320,16 @@
         <v>92</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>161</v>
+        <v>111</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="M36" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>340</v>
-      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>81</v>
       </c>
@@ -6324,13 +6353,13 @@
         <v>81</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>81</v>
+        <v>187</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>81</v>
+        <v>338</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>81</v>
+        <v>339</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>81</v>
@@ -6348,7 +6377,7 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6357,7 +6386,7 @@
         <v>91</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>81</v>
+        <v>341</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>103</v>
@@ -6369,7 +6398,7 @@
         <v>343</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>212</v>
+        <v>344</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
@@ -6383,10 +6412,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6400,28 +6429,28 @@
         <v>91</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>81</v>
@@ -6446,31 +6475,31 @@
         <v>81</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>176</v>
+        <v>81</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>349</v>
+        <v>81</v>
       </c>
       <c r="Z37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF37" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6485,13 +6514,13 @@
         <v>103</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="AL37" t="s" s="2">
-        <v>264</v>
-      </c>
       <c r="AM37" t="s" s="2">
-        <v>353</v>
+        <v>224</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
@@ -6505,10 +6534,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6525,24 +6554,26 @@
         <v>81</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="N38" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>81</v>
       </c>
@@ -6566,13 +6597,13 @@
         <v>81</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>81</v>
+        <v>187</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>81</v>
+        <v>358</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>81</v>
+        <v>359</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>81</v>
@@ -6590,7 +6621,7 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6605,13 +6636,13 @@
         <v>103</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>165</v>
+        <v>361</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>165</v>
+        <v>273</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>81</v>
+        <v>362</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>81</v>
@@ -6625,10 +6656,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6651,15 +6682,17 @@
         <v>92</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>216</v>
+        <v>364</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>81</v>
@@ -6708,7 +6741,7 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6723,13 +6756,13 @@
         <v>103</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>313</v>
+        <v>173</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>222</v>
+        <v>81</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>81</v>
@@ -6743,10 +6776,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6757,10 +6790,10 @@
         <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>81</v>
@@ -6769,20 +6802,16 @@
         <v>92</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>365</v>
+        <v>227</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>369</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>81</v>
       </c>
@@ -6830,13 +6859,13 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>81</v>
@@ -6845,13 +6874,13 @@
         <v>103</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>370</v>
+        <v>134</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>371</v>
+        <v>322</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>165</v>
+        <v>233</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
@@ -6865,10 +6894,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6879,28 +6908,32 @@
         <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>161</v>
+        <v>374</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>162</v>
+        <v>375</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>81</v>
       </c>
@@ -6948,28 +6981,28 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>164</v>
+        <v>373</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>81</v>
+        <v>379</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>165</v>
+        <v>380</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>81</v>
+        <v>173</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>81</v>
@@ -6983,21 +7016,21 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>81</v>
@@ -7009,17 +7042,15 @@
         <v>81</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>81</v>
@@ -7056,37 +7087,37 @@
         <v>81</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>168</v>
+        <v>81</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>169</v>
+        <v>81</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>155</v>
+        <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>81</v>
@@ -7103,46 +7134,44 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>375</v>
+        <v>138</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>376</v>
+        <v>176</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>81</v>
       </c>
@@ -7154,7 +7183,7 @@
         <v>81</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>379</v>
+        <v>81</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>81</v>
@@ -7166,52 +7195,52 @@
         <v>81</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>176</v>
+        <v>81</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>380</v>
+        <v>81</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>381</v>
+        <v>81</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>81</v>
+        <v>178</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>81</v>
+        <v>155</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>382</v>
+        <v>179</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>383</v>
+        <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>264</v>
+        <v>173</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>384</v>
+        <v>81</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>81</v>
@@ -7225,10 +7254,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7245,7 +7274,7 @@
         <v>81</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J44" t="s" s="2">
         <v>92</v>
@@ -7254,15 +7283,17 @@
         <v>111</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="N44" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="O44" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="N44" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>81</v>
       </c>
@@ -7274,43 +7305,43 @@
         <v>81</v>
       </c>
       <c r="T44" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="Y44" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="U44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="Y44" t="s" s="2">
+      <c r="Z44" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="Z44" t="s" s="2">
+      <c r="AA44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF44" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7325,13 +7356,13 @@
         <v>103</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
@@ -7371,7 +7402,7 @@
         <v>92</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>161</v>
+        <v>111</v>
       </c>
       <c r="L45" t="s" s="2">
         <v>395</v>
@@ -7382,9 +7413,7 @@
       <c r="N45" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="O45" t="s" s="2">
-        <v>270</v>
-      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>81</v>
       </c>
@@ -7408,13 +7437,13 @@
         <v>81</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>81</v>
+        <v>187</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>81</v>
+        <v>399</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>81</v>
@@ -7432,7 +7461,7 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7447,7 +7476,7 @@
         <v>103</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>273</v>
@@ -7467,10 +7496,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7481,10 +7510,10 @@
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>402</v>
+        <v>91</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>81</v>
@@ -7493,16 +7522,20 @@
         <v>92</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>81</v>
       </c>
@@ -7514,7 +7547,7 @@
         <v>81</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="U46" t="s" s="2">
         <v>81</v>
@@ -7550,13 +7583,13 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>81</v>
@@ -7565,13 +7598,13 @@
         <v>103</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>408</v>
+        <v>282</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>409</v>
+        <v>81</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>81</v>
@@ -7592,14 +7625,14 @@
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>411</v>
+        <v>81</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>91</v>
+        <v>411</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>92</v>
@@ -7611,7 +7644,7 @@
         <v>92</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="L47" t="s" s="2">
         <v>412</v>
@@ -7674,7 +7707,7 @@
         <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>81</v>
@@ -7720,7 +7753,7 @@
         <v>91</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>81</v>
@@ -7729,7 +7762,7 @@
         <v>92</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="L48" t="s" s="2">
         <v>421</v>
@@ -7737,9 +7770,7 @@
       <c r="M48" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="N48" t="s" s="2">
-        <v>423</v>
-      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>81</v>
@@ -7752,43 +7783,43 @@
         <v>81</v>
       </c>
       <c r="T48" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF48" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7803,13 +7834,13 @@
         <v>103</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>81</v>
@@ -7840,7 +7871,7 @@
         <v>91</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>81</v>
@@ -7849,7 +7880,7 @@
         <v>92</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="L49" t="s" s="2">
         <v>430</v>
@@ -7857,7 +7888,9 @@
       <c r="M49" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="N49" s="2"/>
+      <c r="N49" t="s" s="2">
+        <v>432</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>81</v>
@@ -7870,7 +7903,7 @@
         <v>81</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>81</v>
+        <v>433</v>
       </c>
       <c r="U49" t="s" s="2">
         <v>81</v>
@@ -7882,13 +7915,13 @@
         <v>81</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>187</v>
+        <v>81</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>432</v>
+        <v>81</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>433</v>
+        <v>81</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>81</v>
@@ -7927,7 +7960,7 @@
         <v>436</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>437</v>
+        <v>81</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>81</v>
@@ -7941,14 +7974,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7967,13 +8000,13 @@
         <v>92</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7988,25 +8021,25 @@
         <v>81</v>
       </c>
       <c r="T50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="Z50" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>81</v>
@@ -8066,7 +8099,7 @@
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>81</v>
+        <v>448</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -8085,17 +8118,15 @@
         <v>92</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N51" t="s" s="2">
         <v>450</v>
       </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>81</v>
@@ -8108,7 +8139,7 @@
         <v>81</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>81</v>
+        <v>451</v>
       </c>
       <c r="U51" t="s" s="2">
         <v>81</v>
@@ -8144,7 +8175,7 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -8159,13 +8190,13 @@
         <v>103</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>81</v>
@@ -8179,10 +8210,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8196,7 +8227,7 @@
         <v>91</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>81</v>
@@ -8205,18 +8236,18 @@
         <v>92</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>216</v>
+        <v>169</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" t="s" s="2">
         <v>458</v>
       </c>
+      <c r="N52" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>81</v>
       </c>
@@ -8228,7 +8259,7 @@
         <v>81</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>459</v>
+        <v>81</v>
       </c>
       <c r="U52" t="s" s="2">
         <v>81</v>
@@ -8282,10 +8313,10 @@
         <v>461</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>313</v>
+        <v>462</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>222</v>
+        <v>463</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>81</v>
@@ -8299,10 +8330,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8325,17 +8356,17 @@
         <v>92</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>111</v>
+        <v>227</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>81</v>
@@ -8348,7 +8379,7 @@
         <v>81</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>81</v>
+        <v>468</v>
       </c>
       <c r="U53" t="s" s="2">
         <v>81</v>
@@ -8360,13 +8391,13 @@
         <v>81</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>176</v>
+        <v>81</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>466</v>
+        <v>81</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>467</v>
+        <v>81</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>81</v>
@@ -8384,7 +8415,7 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8399,13 +8430,13 @@
         <v>103</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>469</v>
+        <v>322</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>470</v>
+        <v>233</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>81</v>
@@ -8445,17 +8476,17 @@
         <v>92</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>81</v>
@@ -8480,13 +8511,13 @@
         <v>81</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>81</v>
+        <v>187</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>81</v>
+        <v>475</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>81</v>
+        <v>476</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>81</v>
@@ -8519,13 +8550,13 @@
         <v>103</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>81</v>
@@ -8539,10 +8570,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8553,7 +8584,7 @@
         <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>81</v>
@@ -8562,20 +8593,20 @@
         <v>81</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>81</v>
@@ -8624,13 +8655,13 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>81</v>
@@ -8639,13 +8670,13 @@
         <v>103</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>81</v>
+        <v>485</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>81</v>
@@ -8659,10 +8690,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8685,16 +8716,18 @@
         <v>81</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>492</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>81</v>
       </c>
@@ -8742,7 +8775,7 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8757,13 +8790,13 @@
         <v>103</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>490</v>
+        <v>81</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>81</v>
@@ -8777,10 +8810,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8791,7 +8824,7 @@
         <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>81</v>
@@ -8803,13 +8836,13 @@
         <v>81</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>161</v>
+        <v>496</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>162</v>
+        <v>497</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>163</v>
+        <v>498</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8860,28 +8893,28 @@
         <v>81</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>164</v>
+        <v>495</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>81</v>
+        <v>499</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>165</v>
+        <v>500</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>81</v>
@@ -8895,21 +8928,21 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>81</v>
@@ -8921,17 +8954,15 @@
         <v>81</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>81</v>
@@ -8980,25 +9011,25 @@
         <v>81</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>81</v>
@@ -9015,14 +9046,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>496</v>
+        <v>136</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -9035,26 +9066,24 @@
         <v>81</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K59" t="s" s="2">
         <v>137</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>497</v>
+        <v>138</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>498</v>
+        <v>176</v>
       </c>
       <c r="N59" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="O59" t="s" s="2">
-        <v>146</v>
-      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>81</v>
       </c>
@@ -9102,7 +9131,7 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>499</v>
+        <v>179</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -9120,7 +9149,7 @@
         <v>81</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>81</v>
@@ -9137,14 +9166,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>81</v>
+        <v>505</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9157,23 +9186,25 @@
         <v>81</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>507</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="O60" t="s" s="2">
-        <v>503</v>
+        <v>146</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>81</v>
@@ -9222,7 +9253,7 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -9234,13 +9265,13 @@
         <v>81</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>504</v>
+        <v>134</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>81</v>
@@ -9257,10 +9288,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9268,10 +9299,10 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>81</v>
@@ -9283,16 +9314,18 @@
         <v>81</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>512</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>81</v>
       </c>
@@ -9316,37 +9349,37 @@
         <v>81</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>508</v>
+        <v>81</v>
       </c>
       <c r="Y61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF61" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="Z61" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>505</v>
-      </c>
       <c r="AG61" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>81</v>
@@ -9358,10 +9391,10 @@
         <v>81</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>491</v>
+        <v>513</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>511</v>
+        <v>81</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>81</v>
@@ -9375,10 +9408,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9386,7 +9419,7 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>91</v>
@@ -9401,18 +9434,16 @@
         <v>81</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="N62" s="2"/>
-      <c r="O62" t="s" s="2">
-        <v>515</v>
-      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>81</v>
       </c>
@@ -9436,13 +9467,13 @@
         <v>81</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>81</v>
+        <v>517</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>81</v>
+        <v>518</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>81</v>
+        <v>519</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>81</v>
@@ -9460,10 +9491,10 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>91</v>
@@ -9478,10 +9509,10 @@
         <v>81</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>81</v>
@@ -9495,10 +9526,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9521,16 +9552,18 @@
         <v>81</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>524</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>81</v>
       </c>
@@ -9578,7 +9611,7 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -9596,10 +9629,10 @@
         <v>81</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>81</v>
+        <v>526</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>81</v>
@@ -9613,10 +9646,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9627,7 +9660,7 @@
         <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>81</v>
@@ -9639,20 +9672,16 @@
         <v>81</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>182</v>
+        <v>236</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>526</v>
-      </c>
+        <v>529</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>81</v>
       </c>
@@ -9676,13 +9705,13 @@
         <v>81</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>81</v>
@@ -9700,13 +9729,13 @@
         <v>81</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>81</v>
@@ -9715,26 +9744,148 @@
         <v>103</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>527</v>
+        <v>81</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>529</v>
+        <v>81</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>530</v>
+        <v>81</v>
       </c>
       <c r="AP64" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="P65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AP65" t="s" s="2">
         <v>81</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP64">
+  <autoFilter ref="A1:AP65">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9744,7 +9895,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI63">
+  <conditionalFormatting sqref="A2:AI64">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.6-beta</t>
+    <t>0.1.7-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T11:34:13-05:00</t>
+    <t>2023-03-29T16:54:48-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2515" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2515" uniqueCount="541">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-29T16:54:48-05:00</t>
+    <t>2023-03-30T12:22:18-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -678,6 +678,10 @@
   </si>
   <si>
     <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+TOid-startswithoid:ID system must start with urn:oid:2.16.840.1.113883.4.349.4. The next would be the {stationNbr} {value.startsWith('urn:oid:2.16.840.1.113883.4.349.4.')}</t>
   </si>
   <si>
     <t>CX.4 / EI-2-4</t>
@@ -4229,16 +4233,16 @@
         <v>81</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>103</v>
+        <v>212</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>81</v>
@@ -4252,10 +4256,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4281,13 +4285,13 @@
         <v>169</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4301,7 +4305,7 @@
         <v>81</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>81</v>
@@ -4337,7 +4341,7 @@
         <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -4352,13 +4356,13 @@
         <v>103</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>81</v>
@@ -4372,10 +4376,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4398,13 +4402,13 @@
         <v>92</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4455,7 +4459,7 @@
         <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4470,13 +4474,13 @@
         <v>103</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>81</v>
@@ -4490,10 +4494,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4516,16 +4520,16 @@
         <v>92</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4575,7 +4579,7 @@
         <v>81</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4590,13 +4594,13 @@
         <v>103</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>81</v>
@@ -4610,10 +4614,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4636,70 +4640,70 @@
         <v>92</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="P22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q22" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="R22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="P22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q22" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="R22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4717,13 +4721,13 @@
         <v>81</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>81</v>
@@ -4734,10 +4738,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4760,19 +4764,19 @@
         <v>92</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>81</v>
@@ -4821,7 +4825,7 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4836,13 +4840,13 @@
         <v>103</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>81</v>
@@ -4856,10 +4860,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4974,10 +4978,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5094,10 +5098,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5123,16 +5127,16 @@
         <v>111</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>81</v>
@@ -5160,10 +5164,10 @@
         <v>187</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>81</v>
@@ -5181,7 +5185,7 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -5196,13 +5200,13 @@
         <v>103</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>81</v>
@@ -5216,10 +5220,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5245,16 +5249,16 @@
         <v>169</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>81</v>
@@ -5303,7 +5307,7 @@
         <v>81</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -5318,10 +5322,10 @@
         <v>103</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>81</v>
@@ -5330,22 +5334,22 @@
         <v>81</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5367,13 +5371,13 @@
         <v>169</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5423,7 +5427,7 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5438,13 +5442,13 @@
         <v>103</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>81</v>
@@ -5458,14 +5462,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5487,13 +5491,13 @@
         <v>169</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5543,7 +5547,7 @@
         <v>81</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5558,13 +5562,13 @@
         <v>103</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>81</v>
@@ -5578,10 +5582,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5607,10 +5611,10 @@
         <v>169</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5661,7 +5665,7 @@
         <v>81</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5676,13 +5680,13 @@
         <v>103</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>81</v>
@@ -5696,10 +5700,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5725,10 +5729,10 @@
         <v>169</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5779,7 +5783,7 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5794,10 +5798,10 @@
         <v>103</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>81</v>
@@ -5814,10 +5818,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5840,17 +5844,17 @@
         <v>92</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>81</v>
@@ -5899,7 +5903,7 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5914,13 +5918,13 @@
         <v>103</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>81</v>
@@ -5934,10 +5938,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5960,19 +5964,19 @@
         <v>92</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>81</v>
@@ -6021,7 +6025,7 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -6036,19 +6040,19 @@
         <v>103</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>81</v>
@@ -6056,10 +6060,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6174,10 +6178,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6294,10 +6298,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6323,10 +6327,10 @@
         <v>111</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6356,10 +6360,10 @@
         <v>187</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>81</v>
@@ -6377,7 +6381,7 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6386,19 +6390,19 @@
         <v>91</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
@@ -6412,10 +6416,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6441,16 +6445,16 @@
         <v>169</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>81</v>
@@ -6499,7 +6503,7 @@
         <v>81</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6514,13 +6518,13 @@
         <v>103</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
@@ -6534,10 +6538,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6563,16 +6567,16 @@
         <v>111</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>81</v>
@@ -6600,10 +6604,10 @@
         <v>187</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>81</v>
@@ -6621,7 +6625,7 @@
         <v>81</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6636,13 +6640,13 @@
         <v>103</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>81</v>
@@ -6656,10 +6660,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6682,16 +6686,16 @@
         <v>92</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6741,7 +6745,7 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6776,10 +6780,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6802,13 +6806,13 @@
         <v>92</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6859,7 +6863,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6877,10 +6881,10 @@
         <v>134</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
@@ -6894,10 +6898,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6920,19 +6924,19 @@
         <v>92</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>81</v>
@@ -6981,7 +6985,7 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6996,10 +7000,10 @@
         <v>103</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>173</v>
@@ -7016,10 +7020,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7134,10 +7138,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7254,10 +7258,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7283,16 +7287,16 @@
         <v>111</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>81</v>
@@ -7305,7 +7309,7 @@
         <v>81</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>81</v>
@@ -7320,10 +7324,10 @@
         <v>187</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>81</v>
@@ -7341,7 +7345,7 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7356,13 +7360,13 @@
         <v>103</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
@@ -7376,10 +7380,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7405,13 +7409,13 @@
         <v>111</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7425,7 +7429,7 @@
         <v>81</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>81</v>
@@ -7440,10 +7444,10 @@
         <v>187</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>81</v>
@@ -7461,7 +7465,7 @@
         <v>81</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7476,10 +7480,10 @@
         <v>103</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>81</v>
@@ -7496,10 +7500,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7525,16 +7529,16 @@
         <v>169</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>81</v>
@@ -7547,7 +7551,7 @@
         <v>81</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="U46" t="s" s="2">
         <v>81</v>
@@ -7583,7 +7587,7 @@
         <v>81</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7598,10 +7602,10 @@
         <v>103</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>81</v>
@@ -7618,10 +7622,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7632,7 +7636,7 @@
         <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>92</v>
@@ -7647,10 +7651,10 @@
         <v>169</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7665,7 +7669,7 @@
         <v>81</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="U47" t="s" s="2">
         <v>81</v>
@@ -7701,7 +7705,7 @@
         <v>81</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7716,13 +7720,13 @@
         <v>103</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>81</v>
@@ -7736,14 +7740,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7765,10 +7769,10 @@
         <v>169</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7783,7 +7787,7 @@
         <v>81</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="U48" t="s" s="2">
         <v>81</v>
@@ -7819,7 +7823,7 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7834,13 +7838,13 @@
         <v>103</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>81</v>
@@ -7854,14 +7858,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7883,13 +7887,13 @@
         <v>169</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7903,7 +7907,7 @@
         <v>81</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="U49" t="s" s="2">
         <v>81</v>
@@ -7939,7 +7943,7 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7954,10 +7958,10 @@
         <v>103</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>81</v>
@@ -7974,14 +7978,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -8003,10 +8007,10 @@
         <v>169</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -8036,10 +8040,10 @@
         <v>199</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>81</v>
@@ -8057,7 +8061,7 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -8072,13 +8076,13 @@
         <v>103</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>81</v>
@@ -8092,14 +8096,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -8121,10 +8125,10 @@
         <v>169</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8139,7 +8143,7 @@
         <v>81</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="U51" t="s" s="2">
         <v>81</v>
@@ -8175,7 +8179,7 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -8190,13 +8194,13 @@
         <v>103</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>81</v>
@@ -8210,10 +8214,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8239,13 +8243,13 @@
         <v>169</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8295,7 +8299,7 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -8310,13 +8314,13 @@
         <v>103</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>81</v>
@@ -8330,10 +8334,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8356,17 +8360,17 @@
         <v>92</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>81</v>
@@ -8379,7 +8383,7 @@
         <v>81</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="U53" t="s" s="2">
         <v>81</v>
@@ -8415,7 +8419,7 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8430,13 +8434,13 @@
         <v>103</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>81</v>
@@ -8450,10 +8454,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8479,14 +8483,14 @@
         <v>111</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>81</v>
@@ -8514,10 +8518,10 @@
         <v>187</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>81</v>
@@ -8535,7 +8539,7 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8550,13 +8554,13 @@
         <v>103</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>81</v>
@@ -8570,10 +8574,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8596,17 +8600,17 @@
         <v>92</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>81</v>
@@ -8655,7 +8659,7 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8670,13 +8674,13 @@
         <v>103</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>81</v>
@@ -8690,10 +8694,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8716,17 +8720,17 @@
         <v>81</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>81</v>
@@ -8775,7 +8779,7 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8793,10 +8797,10 @@
         <v>81</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>81</v>
@@ -8810,10 +8814,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8836,13 +8840,13 @@
         <v>81</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8893,7 +8897,7 @@
         <v>81</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8908,13 +8912,13 @@
         <v>103</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>81</v>
@@ -8928,10 +8932,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9046,10 +9050,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9166,14 +9170,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9195,10 +9199,10 @@
         <v>137</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="N60" t="s" s="2">
         <v>140</v>
@@ -9253,7 +9257,7 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -9288,10 +9292,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9317,14 +9321,14 @@
         <v>149</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>81</v>
@@ -9373,7 +9377,7 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -9391,7 +9395,7 @@
         <v>81</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>81</v>
@@ -9408,10 +9412,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9437,10 +9441,10 @@
         <v>194</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9467,13 +9471,13 @@
         <v>81</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>81</v>
@@ -9491,7 +9495,7 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>91</v>
@@ -9509,10 +9513,10 @@
         <v>81</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>81</v>
@@ -9526,10 +9530,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9552,17 +9556,17 @@
         <v>81</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>81</v>
@@ -9611,7 +9615,7 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -9629,10 +9633,10 @@
         <v>81</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>81</v>
@@ -9646,10 +9650,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9672,13 +9676,13 @@
         <v>81</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9729,7 +9733,7 @@
         <v>81</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9747,7 +9751,7 @@
         <v>81</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>81</v>
@@ -9764,10 +9768,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9793,16 +9797,16 @@
         <v>194</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>81</v>
@@ -9851,7 +9855,7 @@
         <v>81</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -9866,19 +9870,19 @@
         <v>103</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AP65" t="s" s="2">
         <v>81</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T12:22:18-05:00</t>
+    <t>2023-03-31T07:50:38-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T07:50:38-05:00</t>
+    <t>2023-04-11T08:45:33-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.7-beta</t>
+    <t>0.1.8-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T08:45:33-05:00</t>
+    <t>2023-04-12T10:49:54-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.8-beta</t>
+    <t>0.1.9-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T10:49:54-05:00</t>
+    <t>2023-04-14T09:56:36-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-17T18:54:15-05:00</t>
+    <t>2023-04-17T19:11:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.10-beta</t>
+    <t>0.1.11-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-17T19:11:15-05:00</t>
+    <t>2023-04-24T08:03:17-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.11-beta</t>
+    <t>0.1.12-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-24T08:03:17-05:00</t>
+    <t>2023-05-01T08:16:19-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.12-beta</t>
+    <t>0.1.13-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-01T08:16:19-05:00</t>
+    <t>2023-05-02T08:13:48-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.13-beta</t>
+    <t>0.1.14-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-02T08:13:48-05:00</t>
+    <t>2023-05-04T14:24:58-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.14-beta</t>
+    <t>0.1.15-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T14:24:58-05:00</t>
+    <t>2023-06-07T11:47:17-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-13T11:38:47-05:00</t>
+    <t>2023-06-13T14:37:26-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-13T14:37:26-05:00</t>
+    <t>2023-06-13T16:30:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-13T16:30:05-05:00</t>
+    <t>2023-06-16T14:48:21-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.16-beta</t>
+    <t>0.1.17-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-16T14:48:21-05:00</t>
+    <t>2023-07-13T09:22:36-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.17-beta</t>
+    <t>0.1.18-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-13T09:22:36-05:00</t>
+    <t>2023-07-19T13:17:04-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-19T13:17:04-05:00</t>
+    <t>2023-07-21T16:23:00-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-21T16:23:00-05:00</t>
+    <t>2023-08-03T12:49:33-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-03T12:49:33-05:00</t>
+    <t>2023-08-17T15:11:45-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.18-beta</t>
+    <t>0.1.19-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-17T15:11:45-05:00</t>
+    <t>2023-08-18T06:56:10-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-18T06:56:10-05:00</t>
+    <t>2023-08-18T07:55:35-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.19-beta</t>
+    <t>0.1.20-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-18T07:55:35-05:00</t>
+    <t>2023-08-22T11:16:10-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T11:16:10-05:00</t>
+    <t>2023-08-22T12:58:52-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
@@ -27,13 +27,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://johnmoehrke.github.io/MHV-PHR/StructureDefinition/VA.MHV.PHR.practitioner</t>
+    <t>https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/VA.MHV.PHR.practitioner</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.20-beta</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T12:58:52-05:00</t>
+    <t>2023-08-22T16:36:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>John Moehrke (himself)</t>
+    <t>VA Digital Services</t>
   </si>
   <si>
     <t>Contact</t>
@@ -89,7 +89,7 @@
 - used for VIDF UserTO, and AuthorTO
 - used for HDR PractitionerLite
 - might be used for PersonTO or is that RelatedPerson?
-Mapping to [VDIF UserTO](StructureDefinition-VA.MHV.PHR.practitioner-mappings.html#mappings-for-vdif-to-mhv-phr-userto) and [VDIF AuthorTO](StructureDefinition-VA.MHV.PHR.practitioner-mappings.html#mappings-for-vdif-to-mhv-phr-authorto)
+Mapping to [VIA UserTO](StructureDefinition-VA.MHV.PHR.practitioner-mappings.html#mappings-for-via-to-mhv-phr-userto) and [VIA AuthorTO](StructureDefinition-VA.MHV.PHR.practitioner-mappings.html#mappings-for-via-to-mhv-phr-authorto)
 Mapping to [HDR PractitionerLite](StructureDefinition-VA.MHV.PHR.practitioner-mappings.html#mappings-for-hdr-to-mhv-phr-practitionerlite)</t>
   </si>
   <si>

--- a/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2423" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2423" uniqueCount="394">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T16:36:15-05:00</t>
+    <t>2023-08-24T09:48:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -89,6 +89,7 @@
 - used for VIDF UserTO, and AuthorTO
 - used for HDR PractitionerLite
 - might be used for PersonTO or is that RelatedPerson?
+- always a contained resource, so not exposed RESTfully
 Mapping to [VIA UserTO](StructureDefinition-VA.MHV.PHR.practitioner-mappings.html#mappings-for-via-to-mhv-phr-userto) and [VIA AuthorTO](StructureDefinition-VA.MHV.PHR.practitioner-mappings.html#mappings-for-via-to-mhv-phr-authorto)
 Mapping to [HDR PractitionerLite](StructureDefinition-VA.MHV.PHR.practitioner-mappings.html#mappings-for-hdr-to-mhv-phr-practitionerlite)</t>
   </si>
@@ -152,6 +153,10 @@
   </si>
   <si>
     <t>A person who is directly or indirectly involved in the provisioning of healthcare.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>PRD (as one example)</t>
@@ -1720,36 +1725,36 @@
         <v>37</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AN1" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO1" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AP1" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AQ1" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1760,7 +1765,7 @@
         <v>38</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>37</v>
@@ -1769,19 +1774,19 @@
         <v>37</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1831,13 +1836,13 @@
         <v>37</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>37</v>
@@ -1869,10 +1874,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1883,7 +1888,7 @@
         <v>38</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>37</v>
@@ -1892,16 +1897,16 @@
         <v>37</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1952,19 +1957,19 @@
         <v>37</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>37</v>
@@ -1990,10 +1995,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2004,28 +2009,28 @@
         <v>38</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2075,19 +2080,19 @@
         <v>37</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>37</v>
@@ -2113,10 +2118,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2127,7 +2132,7 @@
         <v>38</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>37</v>
@@ -2139,16 +2144,16 @@
         <v>37</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2174,13 +2179,13 @@
         <v>37</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>37</v>
@@ -2198,19 +2203,19 @@
         <v>37</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>37</v>
@@ -2236,21 +2241,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>37</v>
@@ -2262,16 +2267,16 @@
         <v>37</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2321,25 +2326,25 @@
         <v>37</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>37</v>
@@ -2359,14 +2364,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2385,16 +2390,16 @@
         <v>37</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2444,7 +2449,7 @@
         <v>37</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>38</v>
@@ -2462,7 +2467,7 @@
         <v>37</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>37</v>
@@ -2482,14 +2487,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2508,16 +2513,16 @@
         <v>37</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2567,7 +2572,7 @@
         <v>37</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>38</v>
@@ -2579,13 +2584,13 @@
         <v>37</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>37</v>
@@ -2605,14 +2610,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2625,25 +2630,25 @@
         <v>37</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>37</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>37</v>
@@ -2692,7 +2697,7 @@
         <v>37</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>38</v>
@@ -2704,13 +2709,13 @@
         <v>37</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>37</v>
@@ -2730,10 +2735,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2741,7 +2746,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>39</v>
@@ -2753,20 +2758,20 @@
         <v>37</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>37</v>
@@ -2803,17 +2808,17 @@
         <v>37</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AC10" s="2"/>
       <c r="AD10" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>38</v>
@@ -2825,19 +2830,19 @@
         <v>37</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AO10" t="s" s="2">
         <v>37</v>
@@ -2851,10 +2856,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2865,7 +2870,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>37</v>
@@ -2877,13 +2882,13 @@
         <v>37</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2934,13 +2939,13 @@
         <v>37</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>37</v>
@@ -2952,7 +2957,7 @@
         <v>37</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>37</v>
@@ -2972,14 +2977,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2998,16 +3003,16 @@
         <v>37</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3045,19 +3050,19 @@
         <v>37</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>38</v>
@@ -3069,13 +3074,13 @@
         <v>37</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>37</v>
@@ -3095,10 +3100,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3109,31 +3114,31 @@
         <v>38</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>37</v>
@@ -3158,13 +3163,13 @@
         <v>37</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>37</v>
@@ -3182,25 +3187,25 @@
         <v>37</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>37</v>
@@ -3209,21 +3214,21 @@
         <v>37</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AP13" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AQ13" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3234,7 +3239,7 @@
         <v>38</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>37</v>
@@ -3243,22 +3248,22 @@
         <v>37</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>37</v>
@@ -3283,13 +3288,13 @@
         <v>37</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>37</v>
@@ -3307,25 +3312,25 @@
         <v>37</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>37</v>
@@ -3345,10 +3350,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3359,7 +3364,7 @@
         <v>38</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>37</v>
@@ -3368,22 +3373,22 @@
         <v>37</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>37</v>
@@ -3396,7 +3401,7 @@
         <v>37</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="U15" t="s" s="2">
         <v>37</v>
@@ -3432,48 +3437,48 @@
         <v>37</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AP15" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AQ15" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3484,7 +3489,7 @@
         <v>38</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>37</v>
@@ -3493,19 +3498,19 @@
         <v>37</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3519,7 +3524,7 @@
         <v>37</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>37</v>
@@ -3555,48 +3560,48 @@
         <v>37</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AQ16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3607,7 +3612,7 @@
         <v>38</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>37</v>
@@ -3616,16 +3621,16 @@
         <v>37</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3676,28 +3681,28 @@
         <v>37</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>37</v>
@@ -3714,10 +3719,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3728,7 +3733,7 @@
         <v>38</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>37</v>
@@ -3737,19 +3742,19 @@
         <v>37</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3799,28 +3804,28 @@
         <v>37</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>37</v>
@@ -3837,13 +3842,13 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>37</v>
@@ -3862,20 +3867,20 @@
         <v>37</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>37</v>
@@ -3924,7 +3929,7 @@
         <v>37</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>38</v>
@@ -3936,19 +3941,19 @@
         <v>37</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>37</v>
@@ -3962,10 +3967,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3976,7 +3981,7 @@
         <v>38</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>37</v>
@@ -3988,13 +3993,13 @@
         <v>37</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4045,13 +4050,13 @@
         <v>37</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>37</v>
@@ -4063,7 +4068,7 @@
         <v>37</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>37</v>
@@ -4083,14 +4088,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4109,16 +4114,16 @@
         <v>37</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4156,19 +4161,19 @@
         <v>37</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>38</v>
@@ -4180,13 +4185,13 @@
         <v>37</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>37</v>
@@ -4206,10 +4211,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4217,34 +4222,34 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>37</v>
@@ -4254,7 +4259,7 @@
         <v>37</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>37</v>
@@ -4269,13 +4274,13 @@
         <v>37</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>37</v>
@@ -4293,25 +4298,25 @@
         <v>37</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>37</v>
@@ -4331,10 +4336,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4345,7 +4350,7 @@
         <v>38</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>37</v>
@@ -4354,22 +4359,22 @@
         <v>37</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>37</v>
@@ -4394,13 +4399,13 @@
         <v>37</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>37</v>
@@ -4418,25 +4423,25 @@
         <v>37</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>37</v>
@@ -4456,10 +4461,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4470,7 +4475,7 @@
         <v>38</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>37</v>
@@ -4479,22 +4484,22 @@
         <v>37</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>37</v>
@@ -4507,7 +4512,7 @@
         <v>37</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="U24" t="s" s="2">
         <v>37</v>
@@ -4543,28 +4548,28 @@
         <v>37</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>37</v>
@@ -4581,10 +4586,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4595,7 +4600,7 @@
         <v>38</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>37</v>
@@ -4604,19 +4609,19 @@
         <v>37</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4630,7 +4635,7 @@
         <v>37</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>37</v>
@@ -4666,28 +4671,28 @@
         <v>37</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>37</v>
@@ -4704,10 +4709,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4718,7 +4723,7 @@
         <v>38</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>37</v>
@@ -4727,16 +4732,16 @@
         <v>37</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4787,28 +4792,28 @@
         <v>37</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>37</v>
@@ -4825,10 +4830,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4839,7 +4844,7 @@
         <v>38</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>37</v>
@@ -4848,19 +4853,19 @@
         <v>37</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4910,28 +4915,28 @@
         <v>37</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>37</v>
@@ -4948,13 +4953,13 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>37</v>
@@ -4973,20 +4978,20 @@
         <v>37</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>37</v>
@@ -5035,7 +5040,7 @@
         <v>37</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>38</v>
@@ -5047,19 +5052,19 @@
         <v>37</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>37</v>
@@ -5073,10 +5078,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5087,7 +5092,7 @@
         <v>38</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>37</v>
@@ -5099,13 +5104,13 @@
         <v>37</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5156,13 +5161,13 @@
         <v>37</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>37</v>
@@ -5174,7 +5179,7 @@
         <v>37</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>37</v>
@@ -5194,14 +5199,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5220,16 +5225,16 @@
         <v>37</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5267,19 +5272,19 @@
         <v>37</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>38</v>
@@ -5291,13 +5296,13 @@
         <v>37</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>37</v>
@@ -5317,10 +5322,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5328,34 +5333,34 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>37</v>
@@ -5365,7 +5370,7 @@
         <v>37</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>37</v>
@@ -5380,13 +5385,13 @@
         <v>37</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>37</v>
@@ -5404,25 +5409,25 @@
         <v>37</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>37</v>
@@ -5442,10 +5447,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5456,7 +5461,7 @@
         <v>38</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>37</v>
@@ -5465,22 +5470,22 @@
         <v>37</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>37</v>
@@ -5505,13 +5510,13 @@
         <v>37</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>37</v>
@@ -5529,25 +5534,25 @@
         <v>37</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>37</v>
@@ -5567,10 +5572,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5581,7 +5586,7 @@
         <v>38</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>37</v>
@@ -5590,22 +5595,22 @@
         <v>37</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>37</v>
@@ -5618,7 +5623,7 @@
         <v>37</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="U33" t="s" s="2">
         <v>37</v>
@@ -5654,28 +5659,28 @@
         <v>37</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>37</v>
@@ -5692,10 +5697,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5706,7 +5711,7 @@
         <v>38</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>37</v>
@@ -5715,19 +5720,19 @@
         <v>37</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5741,7 +5746,7 @@
         <v>37</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="U34" t="s" s="2">
         <v>37</v>
@@ -5777,28 +5782,28 @@
         <v>37</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>37</v>
@@ -5815,10 +5820,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5829,7 +5834,7 @@
         <v>38</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>37</v>
@@ -5838,16 +5843,16 @@
         <v>37</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5898,28 +5903,28 @@
         <v>37</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>37</v>
@@ -5936,10 +5941,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5950,7 +5955,7 @@
         <v>38</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>37</v>
@@ -5959,19 +5964,19 @@
         <v>37</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6021,28 +6026,28 @@
         <v>37</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>37</v>
@@ -6059,10 +6064,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6073,7 +6078,7 @@
         <v>38</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>37</v>
@@ -6082,97 +6087,97 @@
         <v>37</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="P37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q37" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH37" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="K37" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="P37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q37" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="R37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="AI37" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>37</v>
@@ -6186,10 +6191,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6203,28 +6208,28 @@
         <v>39</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>37</v>
@@ -6273,7 +6278,7 @@
         <v>37</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>38</v>
@@ -6285,16 +6290,16 @@
         <v>37</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>37</v>
@@ -6306,15 +6311,15 @@
         <v>37</v>
       </c>
       <c r="AQ38" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6325,7 +6330,7 @@
         <v>38</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>37</v>
@@ -6337,13 +6342,13 @@
         <v>37</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6394,13 +6399,13 @@
         <v>37</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>37</v>
@@ -6412,7 +6417,7 @@
         <v>37</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>37</v>
@@ -6432,14 +6437,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6458,16 +6463,16 @@
         <v>37</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6505,19 +6510,19 @@
         <v>37</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>38</v>
@@ -6529,13 +6534,13 @@
         <v>37</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>37</v>
@@ -6555,10 +6560,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6569,31 +6574,31 @@
         <v>38</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>37</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>37</v>
@@ -6618,13 +6623,13 @@
         <v>37</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>37</v>
@@ -6642,28 +6647,28 @@
         <v>37</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>37</v>
@@ -6680,10 +6685,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6694,7 +6699,7 @@
         <v>38</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>37</v>
@@ -6703,22 +6708,22 @@
         <v>37</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>37</v>
@@ -6767,25 +6772,25 @@
         <v>37</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>37</v>
@@ -6794,10 +6799,10 @@
         <v>37</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AQ42" t="s" s="2">
         <v>37</v>
@@ -6805,21 +6810,21 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>37</v>
@@ -6828,19 +6833,19 @@
         <v>37</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6890,28 +6895,28 @@
         <v>37</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>37</v>
@@ -6923,19 +6928,19 @@
         <v>37</v>
       </c>
       <c r="AQ43" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6951,19 +6956,19 @@
         <v>37</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7013,7 +7018,7 @@
         <v>37</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>38</v>
@@ -7025,16 +7030,16 @@
         <v>37</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>37</v>
@@ -7046,15 +7051,15 @@
         <v>37</v>
       </c>
       <c r="AQ44" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7074,16 +7079,16 @@
         <v>37</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7134,7 +7139,7 @@
         <v>37</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>38</v>
@@ -7146,16 +7151,16 @@
         <v>37</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>37</v>
@@ -7167,15 +7172,15 @@
         <v>37</v>
       </c>
       <c r="AQ45" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7195,16 +7200,16 @@
         <v>37</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7255,7 +7260,7 @@
         <v>37</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>38</v>
@@ -7267,13 +7272,13 @@
         <v>37</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>37</v>
@@ -7288,15 +7293,15 @@
         <v>37</v>
       </c>
       <c r="AQ46" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7307,7 +7312,7 @@
         <v>38</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>37</v>
@@ -7316,20 +7321,20 @@
         <v>37</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>37</v>
@@ -7378,28 +7383,28 @@
         <v>37</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>37</v>
@@ -7416,10 +7421,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7439,22 +7444,22 @@
         <v>37</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>37</v>
@@ -7503,7 +7508,7 @@
         <v>37</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>38</v>
@@ -7515,22 +7520,22 @@
         <v>37</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>37</v>
@@ -7541,10 +7546,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7564,22 +7569,22 @@
         <v>37</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>37</v>
@@ -7628,7 +7633,7 @@
         <v>37</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>38</v>
@@ -7640,16 +7645,16 @@
         <v>37</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>37</v>
@@ -7666,10 +7671,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7680,7 +7685,7 @@
         <v>38</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>37</v>
@@ -7689,20 +7694,20 @@
         <v>37</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>37</v>
@@ -7727,13 +7732,13 @@
         <v>37</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>37</v>
@@ -7751,28 +7756,28 @@
         <v>37</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>37</v>
@@ -7789,10 +7794,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7803,7 +7808,7 @@
         <v>38</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>37</v>
@@ -7812,20 +7817,20 @@
         <v>37</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>37</v>
@@ -7874,28 +7879,28 @@
         <v>37</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>37</v>
@@ -7912,10 +7917,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7938,17 +7943,17 @@
         <v>37</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>37</v>
@@ -7997,7 +8002,7 @@
         <v>37</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>38</v>
@@ -8009,16 +8014,16 @@
         <v>37</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>37</v>
@@ -8035,10 +8040,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8061,13 +8066,13 @@
         <v>37</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8118,7 +8123,7 @@
         <v>37</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>38</v>
@@ -8130,16 +8135,16 @@
         <v>37</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>37</v>
@@ -8156,10 +8161,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8170,7 +8175,7 @@
         <v>38</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>37</v>
@@ -8182,13 +8187,13 @@
         <v>37</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8239,13 +8244,13 @@
         <v>37</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>37</v>
@@ -8257,7 +8262,7 @@
         <v>37</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>37</v>
@@ -8277,14 +8282,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8303,16 +8308,16 @@
         <v>37</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8362,7 +8367,7 @@
         <v>37</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>38</v>
@@ -8374,13 +8379,13 @@
         <v>37</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>37</v>
@@ -8400,14 +8405,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8420,25 +8425,25 @@
         <v>37</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>37</v>
@@ -8487,7 +8492,7 @@
         <v>37</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>38</v>
@@ -8499,13 +8504,13 @@
         <v>37</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>37</v>
@@ -8525,10 +8530,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8551,17 +8556,17 @@
         <v>37</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>37</v>
@@ -8610,7 +8615,7 @@
         <v>37</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>38</v>
@@ -8622,13 +8627,13 @@
         <v>37</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>37</v>
@@ -8648,10 +8653,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8659,10 +8664,10 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>37</v>
@@ -8674,13 +8679,13 @@
         <v>37</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8707,13 +8712,13 @@
         <v>37</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>37</v>
@@ -8731,28 +8736,28 @@
         <v>37</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>37</v>
@@ -8769,10 +8774,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8783,7 +8788,7 @@
         <v>38</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>37</v>
@@ -8795,17 +8800,17 @@
         <v>37</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>37</v>
@@ -8854,28 +8859,28 @@
         <v>37</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>37</v>
@@ -8892,10 +8897,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8906,7 +8911,7 @@
         <v>38</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>37</v>
@@ -8918,13 +8923,13 @@
         <v>37</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8975,25 +8980,25 @@
         <v>37</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>37</v>
@@ -9013,10 +9018,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9039,19 +9044,19 @@
         <v>37</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>37</v>
@@ -9076,13 +9081,13 @@
         <v>37</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>37</v>
@@ -9100,7 +9105,7 @@
         <v>37</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>38</v>
@@ -9112,22 +9117,22 @@
         <v>37</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>37</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-24T09:48:15-05:00</t>
+    <t>2023-08-25T12:12:31-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -90,8 +90,8 @@
 - used for HDR PractitionerLite
 - might be used for PersonTO or is that RelatedPerson?
 - always a contained resource, so not exposed RESTfully
-Mapping to [VIA UserTO](StructureDefinition-VA.MHV.PHR.practitioner-mappings.html#mappings-for-via-to-mhv-phr-userto) and [VIA AuthorTO](StructureDefinition-VA.MHV.PHR.practitioner-mappings.html#mappings-for-via-to-mhv-phr-authorto)
-Mapping to [HDR PractitionerLite](StructureDefinition-VA.MHV.PHR.practitioner-mappings.html#mappings-for-hdr-to-mhv-phr-practitionerlite)</t>
+Mapping to [VIA UserTO](StructureDefinition-VA.MHV.PHR.practitioner-mappings.html#mappings-for-via-to-mhv-fhir-phr-userto) and [VIA AuthorTO](StructureDefinition-VA.MHV.PHR.practitioner-mappings.html#mappings-for-via-to-mhv-fhir-phr-authorto)
+Mapping to [HDR PractitionerLite](StructureDefinition-VA.MHV.PHR.practitioner-mappings.html#mappings-for-hdr-to-mhv-fhir-phr-practitionerlite)</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.2.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-25T12:12:31-05:00</t>
+    <t>2023-08-25T14:41:58-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.2</t>
+    <t>0.2.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-25T14:41:58-05:00</t>
+    <t>2023-08-31T15:33:32-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.3</t>
+    <t>0.2.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-31T15:33:32-05:00</t>
+    <t>2023-09-22T11:03:56-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.4</t>
+    <t>0.2.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-22T11:03:56-05:00</t>
+    <t>2023-10-06T11:35:14-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.5</t>
+    <t>0.2.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-06T11:35:14-05:00</t>
+    <t>2023-10-20T10:16:33-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.7</t>
+    <t>0.2.8</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T14:14:41-06:00</t>
+    <t>2023-11-30T14:00:30-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.8</t>
+    <t>0.2.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-30T14:00:30-06:00</t>
+    <t>2023-12-15T17:23:12-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.9</t>
+    <t>0.2.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-15T17:23:12-06:00</t>
+    <t>2023-12-22T09:54:24-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.10</t>
+    <t>0.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-22T09:54:24-06:00</t>
+    <t>2024-01-19T11:04:10-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4113,10 +4113,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>79</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.1</t>
+    <t>0.3.2-ci</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-19T11:04:10-06:00</t>
+    <t>2024-01-29T11:03:46-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.2-ci</t>
+    <t>0.3.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T11:03:46-06:00</t>
+    <t>2024-01-29T11:44:59-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.2</t>
+    <t>0.3.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T11:44:59-06:00</t>
+    <t>2024-02-26T14:52:47-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.3</t>
+    <t>0.3.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-26T14:52:47-06:00</t>
+    <t>2024-03-18T14:58:21-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.4</t>
+    <t>0.3.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T14:58:21-05:00</t>
+    <t>2024-03-29T15:35:14-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -244,6 +244,12 @@
     <t>Constraint(s)</t>
   </si>
   <si>
+    <t>Mapping: VIA to mhv-fhir-phr</t>
+  </si>
+  <si>
+    <t>Mapping: HDR to mhv-fhir-phr</t>
+  </si>
+  <si>
     <t>Mapping: HL7 v2 Mapping</t>
   </si>
   <si>
@@ -254,12 +260,6 @@
   </si>
   <si>
     <t>Mapping: FiveWs Pattern Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: VIA to mhv-fhir-phr</t>
-  </si>
-  <si>
-    <t>Mapping: HDR to mhv-fhir-phr</t>
   </si>
   <si>
     <t/>
@@ -285,6 +285,15 @@
 dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
+    <t>UserTO</t>
+  </si>
+  <si>
+    <t>AuthorTO</t>
+  </si>
+  <si>
+    <t>PractitionerLite</t>
+  </si>
+  <si>
     <t>PRD (as one example)</t>
   </si>
   <si>
@@ -292,15 +301,6 @@
   </si>
   <si>
     <t>Provider</t>
-  </si>
-  <si>
-    <t>UserTO</t>
-  </si>
-  <si>
-    <t>AuthorTO</t>
-  </si>
-  <si>
-    <t>PractitionerLite</t>
   </si>
   <si>
     <t>Practitioner.id</t>
@@ -587,13 +587,13 @@
     <t>Identifier.use</t>
   </si>
   <si>
+    <t>`usual`</t>
+  </si>
+  <si>
+    <t>`secondary`</t>
+  </si>
+  <si>
     <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>`usual`</t>
-  </si>
-  <si>
-    <t>`secondary`</t>
   </si>
   <si>
     <t>Practitioner.identifier.type</t>
@@ -651,6 +651,12 @@
     <t>Identifier.system</t>
   </si>
   <si>
+    <t>ID system must start with urn:oid:2.16.840.1.113883.4.349.4. The next would be the {stationNbr}</t>
+  </si>
+  <si>
+    <t>`http://va.gov/systems/` + idSourceTable</t>
+  </si>
+  <si>
     <t>CX.4 / EI-2-4</t>
   </si>
   <si>
@@ -660,12 +666,6 @@
     <t>./IdentifierType</t>
   </si>
   <si>
-    <t>ID system must start with urn:oid:2.16.840.1.113883.4.349.4. The next would be the {stationNbr}</t>
-  </si>
-  <si>
-    <t>`http://va.gov/systems/` + idSourceTable</t>
-  </si>
-  <si>
     <t>Practitioner.identifier.value</t>
   </si>
   <si>
@@ -684,6 +684,15 @@
     <t>Identifier.value</t>
   </si>
   <si>
+    <t>`UserTO` + {UserTO.id}</t>
+  </si>
+  <si>
+    <t>`AuthorTO.` + {AuthorTO.id}</t>
+  </si>
+  <si>
+    <t>identifier.identity</t>
+  </si>
+  <si>
     <t>CX.1 / EI.1</t>
   </si>
   <si>
@@ -691,15 +700,6 @@
   </si>
   <si>
     <t>./Value</t>
-  </si>
-  <si>
-    <t>`UserTO` + {UserTO.id}</t>
-  </si>
-  <si>
-    <t>`AuthorTO.` + {AuthorTO.id}</t>
-  </si>
-  <si>
-    <t>identifier.identity</t>
   </si>
   <si>
     <t>Practitioner.identifier.period</t>
@@ -896,6 +896,9 @@
     <t>The name(s) that a Practitioner is known by. Where there are multiple, the name that the practitioner is usually known as should be used in the display.</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>XCN Components</t>
   </si>
   <si>
@@ -905,9 +908,6 @@
     <t>./PreferredName (GivenNames, FamilyName, TitleCode)</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>Practitioner.name.id</t>
   </si>
   <si>
@@ -965,16 +965,16 @@
     <t>HumanName.text</t>
   </si>
   <si>
+    <t>UserTO.name</t>
+  </si>
+  <si>
+    <t>AuthorTO.name</t>
+  </si>
+  <si>
     <t>implied by XPN.11</t>
   </si>
   <si>
     <t>./formatted</t>
-  </si>
-  <si>
-    <t>UserTO.name</t>
-  </si>
-  <si>
-    <t>AuthorTO.name</t>
   </si>
   <si>
     <t>Practitioner.name.family</t>
@@ -996,6 +996,9 @@
     <t>HumanName.family</t>
   </si>
   <si>
+    <t>name.family</t>
+  </si>
+  <si>
     <t>XPN.1/FN.1</t>
   </si>
   <si>
@@ -1003,9 +1006,6 @@
   </si>
   <si>
     <t>./FamilyName</t>
-  </si>
-  <si>
-    <t>name.family</t>
   </si>
   <si>
     <t>Practitioner.name.given</t>
@@ -1027,6 +1027,9 @@
     <t>HumanName.given</t>
   </si>
   <si>
+    <t>name.middle</t>
+  </si>
+  <si>
     <t>XPN.2 + XPN.3</t>
   </si>
   <si>
@@ -1036,9 +1039,6 @@
     <t>./GivenNames</t>
   </si>
   <si>
-    <t>name.middle</t>
-  </si>
-  <si>
     <t>Practitioner.name.prefix</t>
   </si>
   <si>
@@ -1051,6 +1051,9 @@
     <t>HumanName.prefix</t>
   </si>
   <si>
+    <t>name.prefix</t>
+  </si>
+  <si>
     <t>XPN.5</t>
   </si>
   <si>
@@ -1060,9 +1063,6 @@
     <t>./TitleCode</t>
   </si>
   <si>
-    <t>name.prefix</t>
-  </si>
-  <si>
     <t>Practitioner.name.suffix</t>
   </si>
   <si>
@@ -1075,13 +1075,13 @@
     <t>HumanName.suffix</t>
   </si>
   <si>
+    <t>name.title</t>
+  </si>
+  <si>
     <t>XPN/4</t>
   </si>
   <si>
     <t>./part[partType = SFX]</t>
-  </si>
-  <si>
-    <t>name.title</t>
   </si>
   <si>
     <t>Practitioner.name.period</t>
@@ -1124,6 +1124,9 @@
     <t>Need to know how to reach a practitioner independent to any roles the practitioner may have.</t>
   </si>
   <si>
+    <t>UserTO.emailAddress</t>
+  </si>
+  <si>
     <t>PRT-15, STF-10, ROL-12</t>
   </si>
   <si>
@@ -1131,9 +1134,6 @@
   </si>
   <si>
     <t>./ContactPoints</t>
-  </si>
-  <si>
-    <t>UserTO.emailAddress</t>
   </si>
   <si>
     <t>Practitioner.address</t>
@@ -1365,6 +1365,9 @@
     <t>Knowing which language a practitioner speaks can help in facilitating communication with patients.</t>
   </si>
   <si>
+    <t>UserTO.greeting</t>
+  </si>
+  <si>
     <t>PID-15, NK1-20, LAN-2</t>
   </si>
   <si>
@@ -1372,9 +1375,6 @@
   </si>
   <si>
     <t>./Languages.LanguageSpokenCode</t>
-  </si>
-  <si>
-    <t>UserTO.greeting</t>
   </si>
 </sst>
 </file>
@@ -1746,13 +1746,13 @@
     <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="54.6015625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="99.69140625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="51.21484375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="87.93359375" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="87.93359375" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" width="37.80078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="87.93359375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="87.93359375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="37.80078125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="54.6015625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="99.69140625" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="51.21484375" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1868,16 +1868,16 @@
         <v>73</v>
       </c>
       <c r="AL1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AM1" t="s" s="1">
         <v>74</v>
       </c>
-      <c r="AM1" t="s" s="1">
+      <c r="AN1" t="s" s="1">
         <v>75</v>
       </c>
-      <c r="AN1" t="s" s="1">
+      <c r="AO1" t="s" s="1">
         <v>76</v>
-      </c>
-      <c r="AO1" t="s" s="1">
-        <v>77</v>
       </c>
       <c r="AP1" t="s" s="1">
         <v>77</v>
@@ -1995,16 +1995,16 @@
         <v>88</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AP2" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AQ2" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" hidden="true">
@@ -2602,16 +2602,16 @@
         <v>79</v>
       </c>
       <c r="AL7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO7" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO7" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AP7" t="s" s="2">
         <v>79</v>
@@ -2725,16 +2725,16 @@
         <v>79</v>
       </c>
       <c r="AL8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO8" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="AM8" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN8" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO8" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AP8" t="s" s="2">
         <v>79</v>
@@ -2848,16 +2848,16 @@
         <v>79</v>
       </c>
       <c r="AL9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO9" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="AM9" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN9" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO9" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AP9" t="s" s="2">
         <v>79</v>
@@ -2973,16 +2973,16 @@
         <v>79</v>
       </c>
       <c r="AL10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO10" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="AM10" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN10" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO10" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AP10" t="s" s="2">
         <v>79</v>
@@ -3091,25 +3091,25 @@
         <v>105</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN11" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AO11" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AP11" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AN11" t="s" s="2">
+      <c r="AQ11" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="AO11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AQ11" t="s" s="2">
-        <v>79</v>
       </c>
     </row>
     <row r="12" hidden="true">
@@ -3215,16 +3215,16 @@
         <v>79</v>
       </c>
       <c r="AL12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO12" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO12" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AP12" t="s" s="2">
         <v>79</v>
@@ -3338,16 +3338,16 @@
         <v>79</v>
       </c>
       <c r="AL13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO13" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO13" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AP13" t="s" s="2">
         <v>79</v>
@@ -3460,25 +3460,25 @@
         <v>105</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>136</v>
+        <v>181</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>181</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AP14" t="s" s="2">
-        <v>182</v>
+        <v>79</v>
       </c>
       <c r="AQ14" t="s" s="2">
-        <v>183</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" hidden="true">
@@ -3585,19 +3585,19 @@
         <v>105</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN15" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="AL15" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AO15" t="s" s="2">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>79</v>
@@ -3713,22 +3713,22 @@
         <v>202</v>
       </c>
       <c r="AL16" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>205</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AQ16" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" hidden="true">
@@ -3842,16 +3842,16 @@
         <v>215</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>79</v>
+        <v>216</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AQ17" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" hidden="true">
@@ -3954,22 +3954,22 @@
         <v>105</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AO18" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AP18" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP18" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AQ18" t="s" s="2">
         <v>79</v>
@@ -4077,22 +4077,22 @@
         <v>105</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AO19" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AP19" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP19" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AQ19" t="s" s="2">
         <v>79</v>
@@ -4202,25 +4202,25 @@
         <v>105</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AO20" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AP20" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AN20" t="s" s="2">
+      <c r="AQ20" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="AO20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AQ20" t="s" s="2">
-        <v>79</v>
       </c>
     </row>
     <row r="21" hidden="true">
@@ -4326,16 +4326,16 @@
         <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO21" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>79</v>
@@ -4449,16 +4449,16 @@
         <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO22" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>79</v>
@@ -4571,19 +4571,19 @@
         <v>105</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="AL23" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AO23" t="s" s="2">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>79</v>
@@ -4696,19 +4696,19 @@
         <v>105</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="AL24" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AO24" t="s" s="2">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>79</v>
@@ -4821,22 +4821,22 @@
         <v>245</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>202</v>
+        <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>203</v>
+        <v>79</v>
       </c>
       <c r="AM25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="AN25" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AO25" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>79</v>
+        <v>206</v>
       </c>
       <c r="AQ25" t="s" s="2">
         <v>79</v>
@@ -4944,22 +4944,22 @@
         <v>105</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>213</v>
+        <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>214</v>
+        <v>79</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>79</v>
+        <v>216</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>79</v>
+        <v>217</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="AQ26" t="s" s="2">
         <v>79</v>
@@ -5065,22 +5065,22 @@
         <v>105</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AO27" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AP27" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP27" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AQ27" t="s" s="2">
         <v>79</v>
@@ -5188,22 +5188,22 @@
         <v>105</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AO28" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AP28" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP28" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AQ28" t="s" s="2">
         <v>79</v>
@@ -5313,25 +5313,25 @@
         <v>105</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AO29" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AP29" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AN29" t="s" s="2">
+      <c r="AQ29" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AQ29" t="s" s="2">
-        <v>79</v>
       </c>
     </row>
     <row r="30" hidden="true">
@@ -5437,16 +5437,16 @@
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO30" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>79</v>
@@ -5560,16 +5560,16 @@
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO31" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>79</v>
@@ -5682,19 +5682,19 @@
         <v>105</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="AL32" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AO32" t="s" s="2">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>79</v>
@@ -5807,19 +5807,19 @@
         <v>105</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="AL33" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AO33" t="s" s="2">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>79</v>
@@ -5932,22 +5932,22 @@
         <v>259</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>202</v>
+        <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>203</v>
+        <v>79</v>
       </c>
       <c r="AM34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="AN34" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AO34" t="s" s="2">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>79</v>
+        <v>206</v>
       </c>
       <c r="AQ34" t="s" s="2">
         <v>79</v>
@@ -6055,22 +6055,22 @@
         <v>105</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>213</v>
+        <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>214</v>
+        <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>79</v>
+        <v>216</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>79</v>
+        <v>217</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="AQ35" t="s" s="2">
         <v>79</v>
@@ -6176,22 +6176,22 @@
         <v>105</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AO36" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AP36" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP36" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AQ36" t="s" s="2">
         <v>79</v>
@@ -6299,22 +6299,22 @@
         <v>105</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AO37" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AP37" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP37" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AQ37" t="s" s="2">
         <v>79</v>
@@ -6429,22 +6429,22 @@
         <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO38" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="AM38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN38" t="s" s="2">
+      <c r="AP38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AQ38" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="AO38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AQ38" t="s" s="2">
-        <v>79</v>
       </c>
     </row>
     <row r="39" hidden="true">
@@ -6551,25 +6551,25 @@
         <v>105</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AO39" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AN39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO39" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AP39" t="s" s="2">
-        <v>79</v>
+        <v>282</v>
       </c>
       <c r="AQ39" t="s" s="2">
-        <v>282</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" hidden="true">
@@ -6675,16 +6675,16 @@
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO40" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO40" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>79</v>
@@ -6798,16 +6798,16 @@
         <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO41" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO41" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>79</v>
@@ -6920,22 +6920,22 @@
         <v>105</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AO42" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="AM42" t="s" s="2">
+      <c r="AP42" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP42" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AQ42" t="s" s="2">
         <v>79</v>
@@ -7054,13 +7054,13 @@
         <v>79</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>79</v>
+        <v>304</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>305</v>
+        <v>79</v>
       </c>
       <c r="AQ43" t="s" s="2">
         <v>79</v>
@@ -7168,25 +7168,25 @@
         <v>105</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AO44" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="AN44" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO44" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AP44" t="s" s="2">
-        <v>79</v>
+        <v>315</v>
       </c>
       <c r="AQ44" t="s" s="2">
-        <v>315</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" hidden="true">
@@ -7291,25 +7291,25 @@
         <v>105</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AN45" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="AM45" t="s" s="2">
+      <c r="AO45" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="AN45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO45" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AP45" t="s" s="2">
-        <v>79</v>
+        <v>325</v>
       </c>
       <c r="AQ45" t="s" s="2">
-        <v>325</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" hidden="true">
@@ -7412,25 +7412,25 @@
         <v>105</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="AL46" t="s" s="2">
+      <c r="AN46" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="AM46" t="s" s="2">
+      <c r="AO46" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="AN46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AP46" t="s" s="2">
-        <v>79</v>
+        <v>333</v>
       </c>
       <c r="AQ46" t="s" s="2">
-        <v>333</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" hidden="true">
@@ -7533,25 +7533,25 @@
         <v>105</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AM47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AO47" t="s" s="2">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AQ47" t="s" s="2">
-        <v>340</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" hidden="true">
@@ -7656,22 +7656,22 @@
         <v>105</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AO48" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="AM48" t="s" s="2">
+      <c r="AP48" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP48" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AQ48" t="s" s="2">
         <v>79</v>
@@ -7784,19 +7784,19 @@
         <v>354</v>
       </c>
       <c r="AL49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AO49" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="AN49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO49" t="s" s="2">
+      <c r="AP49" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AP49" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AQ49" t="s" s="2">
         <v>79</v>
@@ -7906,22 +7906,22 @@
         <v>105</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN50" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AO50" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="AM50" t="s" s="2">
+      <c r="AP50" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP50" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AQ50" t="s" s="2">
         <v>79</v>
@@ -8029,22 +8029,22 @@
         <v>105</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN51" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="AL51" t="s" s="2">
+      <c r="AO51" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="AM51" t="s" s="2">
+      <c r="AP51" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP51" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AQ51" t="s" s="2">
         <v>79</v>
@@ -8152,22 +8152,22 @@
         <v>105</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN52" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="AL52" t="s" s="2">
+      <c r="AO52" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="AM52" t="s" s="2">
+      <c r="AP52" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP52" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AQ52" t="s" s="2">
         <v>79</v>
@@ -8278,19 +8278,19 @@
         <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO53" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="AM53" t="s" s="2">
+      <c r="AP53" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP53" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AQ53" t="s" s="2">
         <v>79</v>
@@ -8396,22 +8396,22 @@
         <v>105</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN54" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="AL54" t="s" s="2">
+      <c r="AO54" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="AM54" t="s" s="2">
+      <c r="AP54" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP54" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AQ54" t="s" s="2">
         <v>79</v>
@@ -8520,16 +8520,16 @@
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO55" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>79</v>
@@ -8643,16 +8643,16 @@
         <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO56" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>79</v>
@@ -8768,16 +8768,16 @@
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO57" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>79</v>
@@ -8891,16 +8891,16 @@
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO58" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>79</v>
@@ -9012,19 +9012,19 @@
         <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO59" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="AM59" t="s" s="2">
+      <c r="AP59" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP59" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AQ59" t="s" s="2">
         <v>79</v>
@@ -9135,19 +9135,19 @@
         <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO60" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="AM60" t="s" s="2">
+      <c r="AP60" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP60" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AQ60" t="s" s="2">
         <v>79</v>
@@ -9256,16 +9256,16 @@
         <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO61" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>79</v>
@@ -9381,19 +9381,19 @@
         <v>432</v>
       </c>
       <c r="AL62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="AM62" t="s" s="2">
+      <c r="AO62" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="AN62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO62" t="s" s="2">
+      <c r="AP62" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="AP62" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AQ62" t="s" s="2">
         <v>79</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.6</t>
+    <t>0.3.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-18T11:51:10-05:00</t>
+    <t>2024-06-10T12:47:52-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.practitioner.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.7</t>
+    <t>0.3.8</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T12:47:52-05:00</t>
+    <t>2024-07-12T09:49:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
